--- a/docs/ST4/ST4_05.08.24_output.xlsx
+++ b/docs/ST4/ST4_05.08.24_output.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K77"/>
+  <dimension ref="A1:N77"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -437,52 +437,67 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>Unnamed: 0.1</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Unnamed: 0</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
           <t>name</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>open</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>close</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>open_image</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>close_img</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>pos</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>traider</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>open_price</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>close_price</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>quity</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>percent</t>
         </is>
       </c>
     </row>
@@ -490,2616 +505,3109 @@
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" t="inlineStr">
         <is>
           <t>moex</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>2024-06-14 16:05:29.360793</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>2024-06-14 16:08:51.910451</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="G2" t="inlineStr">
         <is>
           <t>./test_images/none.png</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="H2" t="inlineStr">
         <is>
           <t>./test_images/none.png</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
+      <c r="I2" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
+      <c r="J2" t="inlineStr">
         <is>
           <t>VisualTraider</t>
         </is>
       </c>
-      <c r="I2" t="inlineStr"/>
-      <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
+      <c r="L2" t="inlineStr"/>
+      <c r="M2" t="inlineStr"/>
+      <c r="N2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="B3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D3" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="E3" t="inlineStr">
         <is>
           <t>1731443661.043673</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>1731443661.6977162</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="G3" t="inlineStr">
         <is>
           <t>./test_images/SBER1731443661.043673.png</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="H3" t="inlineStr">
         <is>
           <t>./test_images/SBER1731443661.6977162.png</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
+      <c r="I3" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I3" t="n">
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K3" t="n">
         <v>277.55</v>
       </c>
-      <c r="J3" t="n">
+      <c r="L3" t="n">
         <v>277.61</v>
       </c>
-      <c r="K3" t="n">
+      <c r="M3" t="n">
         <v>0.06000000000000227</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0.02</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="B4" t="inlineStr">
+      <c r="B4" t="n">
+        <v>2</v>
+      </c>
+      <c r="C4" t="n">
+        <v>2</v>
+      </c>
+      <c r="D4" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="E4" t="inlineStr">
         <is>
           <t>1731443662.095526</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>1731443663.292088</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="G4" t="inlineStr">
         <is>
           <t>./test_images/SBER1731443662.095526.png</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="H4" t="inlineStr">
         <is>
           <t>./test_images/SBER1731443663.292088.png</t>
         </is>
       </c>
-      <c r="G4" t="inlineStr">
+      <c r="I4" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I4" t="n">
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K4" t="n">
         <v>277.23</v>
       </c>
-      <c r="J4" t="n">
+      <c r="L4" t="n">
         <v>277.47</v>
       </c>
-      <c r="K4" t="n">
+      <c r="M4" t="n">
         <v>0.2400000000000091</v>
+      </c>
+      <c r="N4" t="n">
+        <v>0.09</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="B5" t="inlineStr">
+      <c r="B5" t="n">
+        <v>3</v>
+      </c>
+      <c r="C5" t="n">
+        <v>3</v>
+      </c>
+      <c r="D5" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="E5" t="inlineStr">
         <is>
           <t>1731443668.3548703</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>1731443669.1281455</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="G5" t="inlineStr">
         <is>
           <t>./test_images/SBER1731443668.3548703.png</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="H5" t="inlineStr">
         <is>
           <t>./test_images/SBER1731443669.1281455.png</t>
         </is>
       </c>
-      <c r="G5" t="inlineStr">
+      <c r="I5" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I5" t="n">
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K5" t="n">
         <v>276.82</v>
       </c>
-      <c r="J5" t="n">
+      <c r="L5" t="n">
         <v>276.89</v>
       </c>
-      <c r="K5" t="n">
+      <c r="M5" t="n">
         <v>0.06999999999999318</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0.03</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="B6" t="inlineStr">
+      <c r="B6" t="n">
+        <v>4</v>
+      </c>
+      <c r="C6" t="n">
+        <v>4</v>
+      </c>
+      <c r="D6" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>1731443669.220998</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr"/>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>./test_images/SBER1731443669.220998.png</t>
         </is>
       </c>
       <c r="F6" t="inlineStr"/>
       <c r="G6" t="inlineStr">
         <is>
+          <t>./test_images/SBER1731443669.220998.png</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr"/>
+      <c r="I6" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I6" t="n">
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K6" t="n">
         <v>276.57</v>
       </c>
-      <c r="J6" t="n">
-        <v>276.57</v>
-      </c>
-      <c r="K6" t="n">
-        <v>0</v>
+      <c r="L6" t="n">
+        <v>275.69</v>
+      </c>
+      <c r="M6" t="n">
+        <v>-0.8799999999999955</v>
+      </c>
+      <c r="N6" t="n">
+        <v>-0.32</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="B7" t="inlineStr">
+      <c r="B7" t="n">
+        <v>5</v>
+      </c>
+      <c r="C7" t="n">
+        <v>5</v>
+      </c>
+      <c r="D7" t="inlineStr">
         <is>
           <t>GAZP</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>1731443671.9557137</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="F7" t="inlineStr">
         <is>
           <t>1731443672.1255107</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="G7" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731443671.9557137.png</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="H7" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731443672.1255107.png</t>
         </is>
       </c>
-      <c r="G7" t="inlineStr">
+      <c r="I7" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I7" t="n">
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K7" t="n">
         <v>128.11</v>
       </c>
-      <c r="J7" t="n">
+      <c r="L7" t="n">
         <v>128.2</v>
       </c>
-      <c r="K7" t="n">
+      <c r="M7" t="n">
         <v>0.08999999999997499</v>
+      </c>
+      <c r="N7" t="n">
+        <v>0.06999999999999999</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="B8" t="inlineStr">
+      <c r="B8" t="n">
+        <v>6</v>
+      </c>
+      <c r="C8" t="n">
+        <v>6</v>
+      </c>
+      <c r="D8" t="inlineStr">
         <is>
           <t>GAZP</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>1731443672.2978675</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="F8" t="inlineStr">
         <is>
           <t>1731443672.8668964</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="G8" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731443672.2978675.png</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="H8" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731443672.8668964.png</t>
         </is>
       </c>
-      <c r="G8" t="inlineStr">
+      <c r="I8" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I8" t="n">
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K8" t="n">
         <v>127.93</v>
       </c>
-      <c r="J8" t="n">
+      <c r="L8" t="n">
         <v>128.07</v>
       </c>
-      <c r="K8" t="n">
+      <c r="M8" t="n">
         <v>0.1399999999999864</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0.11</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="B9" t="inlineStr">
+      <c r="B9" t="n">
+        <v>7</v>
+      </c>
+      <c r="C9" t="n">
+        <v>7</v>
+      </c>
+      <c r="D9" t="inlineStr">
         <is>
           <t>GAZP</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
+      <c r="E9" t="inlineStr">
         <is>
           <t>1731443673.7369673</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
+      <c r="F9" t="inlineStr">
         <is>
           <t>1731443675.383848</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
+      <c r="G9" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731443673.7369673.png</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="H9" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731443675.383848.png</t>
         </is>
       </c>
-      <c r="G9" t="inlineStr">
+      <c r="I9" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I9" t="n">
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K9" t="n">
         <v>127.7</v>
       </c>
-      <c r="J9" t="n">
+      <c r="L9" t="n">
         <v>127.94</v>
       </c>
-      <c r="K9" t="n">
+      <c r="M9" t="n">
         <v>0.2399999999999949</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0.19</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="B10" t="inlineStr">
+      <c r="B10" t="n">
+        <v>8</v>
+      </c>
+      <c r="C10" t="n">
+        <v>8</v>
+      </c>
+      <c r="D10" t="inlineStr">
         <is>
           <t>GAZP</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
+      <c r="E10" t="inlineStr">
         <is>
           <t>1731443681.4868877</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr">
+      <c r="F10" t="inlineStr">
         <is>
           <t>1731443681.621171</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
+      <c r="G10" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731443681.4868877.png</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
+      <c r="H10" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731443681.621171.png</t>
         </is>
       </c>
-      <c r="G10" t="inlineStr">
+      <c r="I10" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I10" t="n">
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K10" t="n">
         <v>127.59</v>
       </c>
-      <c r="J10" t="n">
+      <c r="L10" t="n">
         <v>127.74</v>
       </c>
-      <c r="K10" t="n">
+      <c r="M10" t="n">
         <v>0.1499999999999915</v>
+      </c>
+      <c r="N10" t="n">
+        <v>0.12</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="B11" t="inlineStr">
+      <c r="B11" t="n">
+        <v>9</v>
+      </c>
+      <c r="C11" t="n">
+        <v>9</v>
+      </c>
+      <c r="D11" t="inlineStr">
         <is>
           <t>GAZP</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr">
+      <c r="E11" t="inlineStr">
         <is>
           <t>1731443681.7978308</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr">
+      <c r="F11" t="inlineStr">
         <is>
           <t>1731443682.5228043</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr">
+      <c r="G11" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731443681.7978308.png</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
+      <c r="H11" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731443682.5228043.png</t>
         </is>
       </c>
-      <c r="G11" t="inlineStr">
+      <c r="I11" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I11" t="n">
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K11" t="n">
         <v>127.6</v>
       </c>
-      <c r="J11" t="n">
+      <c r="L11" t="n">
         <v>127.64</v>
       </c>
-      <c r="K11" t="n">
+      <c r="M11" t="n">
         <v>0.04000000000000625</v>
+      </c>
+      <c r="N11" t="n">
+        <v>0.03</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="B12" t="inlineStr">
+      <c r="B12" t="n">
+        <v>10</v>
+      </c>
+      <c r="C12" t="n">
+        <v>10</v>
+      </c>
+      <c r="D12" t="inlineStr">
         <is>
           <t>GAZP</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr">
+      <c r="E12" t="inlineStr">
         <is>
           <t>1731443682.8883896</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr"/>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>./test_images/GAZP1731443682.8883896.png</t>
         </is>
       </c>
       <c r="F12" t="inlineStr"/>
       <c r="G12" t="inlineStr">
         <is>
+          <t>./test_images/GAZP1731443682.8883896.png</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr"/>
+      <c r="I12" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I12" t="n">
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K12" t="n">
         <v>127.51</v>
       </c>
-      <c r="J12" t="n">
-        <v>127.51</v>
-      </c>
-      <c r="K12" t="n">
-        <v>0</v>
+      <c r="L12" t="n">
+        <v>127.48</v>
+      </c>
+      <c r="M12" t="n">
+        <v>-0.03000000000000114</v>
+      </c>
+      <c r="N12" t="n">
+        <v>-0.02</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
         <v>11</v>
       </c>
-      <c r="B13" t="inlineStr">
+      <c r="B13" t="n">
+        <v>11</v>
+      </c>
+      <c r="C13" t="n">
+        <v>11</v>
+      </c>
+      <c r="D13" t="inlineStr">
         <is>
           <t>LKOH</t>
         </is>
       </c>
-      <c r="C13" t="inlineStr">
+      <c r="E13" t="inlineStr">
         <is>
           <t>1731443684.5700712</t>
         </is>
       </c>
-      <c r="D13" t="inlineStr">
+      <c r="F13" t="inlineStr">
         <is>
           <t>1731443685.1846716</t>
         </is>
       </c>
-      <c r="E13" t="inlineStr">
+      <c r="G13" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731443684.5700712.png</t>
         </is>
       </c>
-      <c r="F13" t="inlineStr">
+      <c r="H13" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731443685.1846716.png</t>
         </is>
       </c>
-      <c r="G13" t="inlineStr">
+      <c r="I13" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I13" t="n">
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K13" t="n">
         <v>6409.5</v>
       </c>
-      <c r="J13" t="n">
+      <c r="L13" t="n">
         <v>6410</v>
       </c>
-      <c r="K13" t="n">
+      <c r="M13" t="n">
         <v>0.5</v>
+      </c>
+      <c r="N13" t="n">
+        <v>0.01</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
         <v>12</v>
       </c>
-      <c r="B14" t="inlineStr">
+      <c r="B14" t="n">
+        <v>12</v>
+      </c>
+      <c r="C14" t="n">
+        <v>12</v>
+      </c>
+      <c r="D14" t="inlineStr">
         <is>
           <t>LKOH</t>
         </is>
       </c>
-      <c r="C14" t="inlineStr">
+      <c r="E14" t="inlineStr">
         <is>
           <t>1731443685.9051218</t>
         </is>
       </c>
-      <c r="D14" t="inlineStr">
+      <c r="F14" t="inlineStr">
         <is>
           <t>1731443687.7408688</t>
         </is>
       </c>
-      <c r="E14" t="inlineStr">
+      <c r="G14" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731443685.9051218.png</t>
         </is>
       </c>
-      <c r="F14" t="inlineStr">
+      <c r="H14" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731443687.7408688.png</t>
         </is>
       </c>
-      <c r="G14" t="inlineStr">
+      <c r="I14" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I14" t="n">
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K14" t="n">
         <v>6405.5</v>
       </c>
-      <c r="J14" t="n">
+      <c r="L14" t="n">
         <v>6427</v>
       </c>
-      <c r="K14" t="n">
+      <c r="M14" t="n">
         <v>21.5</v>
+      </c>
+      <c r="N14" t="n">
+        <v>0.34</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
-      <c r="B15" t="inlineStr">
+      <c r="B15" t="n">
+        <v>13</v>
+      </c>
+      <c r="C15" t="n">
+        <v>13</v>
+      </c>
+      <c r="D15" t="inlineStr">
         <is>
           <t>LKOH</t>
         </is>
       </c>
-      <c r="C15" t="inlineStr">
+      <c r="E15" t="inlineStr">
         <is>
           <t>1731443694.750156</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr"/>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>./test_images/LKOH1731443694.750156.png</t>
         </is>
       </c>
       <c r="F15" t="inlineStr"/>
       <c r="G15" t="inlineStr">
         <is>
+          <t>./test_images/LKOH1731443694.750156.png</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr"/>
+      <c r="I15" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I15" t="n">
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K15" t="n">
         <v>6409</v>
       </c>
-      <c r="J15" t="n">
-        <v>6409</v>
-      </c>
-      <c r="K15" t="n">
-        <v>0</v>
+      <c r="L15" t="n">
+        <v>6394.5</v>
+      </c>
+      <c r="M15" t="n">
+        <v>-14.5</v>
+      </c>
+      <c r="N15" t="n">
+        <v>-0.23</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
-      <c r="B16" t="inlineStr">
+      <c r="B16" t="n">
+        <v>14</v>
+      </c>
+      <c r="C16" t="n">
+        <v>14</v>
+      </c>
+      <c r="D16" t="inlineStr">
         <is>
           <t>ROSN</t>
         </is>
       </c>
-      <c r="C16" t="inlineStr">
+      <c r="E16" t="inlineStr">
         <is>
           <t>1731443698.079257</t>
         </is>
       </c>
-      <c r="D16" t="inlineStr">
+      <c r="F16" t="inlineStr">
         <is>
           <t>1731443699.4102957</t>
         </is>
       </c>
-      <c r="E16" t="inlineStr">
+      <c r="G16" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731443698.079257.png</t>
         </is>
       </c>
-      <c r="F16" t="inlineStr">
+      <c r="H16" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731443699.4102957.png</t>
         </is>
       </c>
-      <c r="G16" t="inlineStr">
+      <c r="I16" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I16" t="n">
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K16" t="n">
         <v>496.25</v>
       </c>
-      <c r="J16" t="n">
+      <c r="L16" t="n">
         <v>496.9</v>
       </c>
-      <c r="K16" t="n">
+      <c r="M16" t="n">
         <v>0.6499999999999773</v>
+      </c>
+      <c r="N16" t="n">
+        <v>0.13</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
-      <c r="B17" t="inlineStr">
+      <c r="B17" t="n">
+        <v>15</v>
+      </c>
+      <c r="C17" t="n">
+        <v>15</v>
+      </c>
+      <c r="D17" t="inlineStr">
         <is>
           <t>ROSN</t>
         </is>
       </c>
-      <c r="C17" t="inlineStr">
+      <c r="E17" t="inlineStr">
         <is>
           <t>1731443699.459657</t>
         </is>
       </c>
-      <c r="D17" t="inlineStr">
+      <c r="F17" t="inlineStr">
         <is>
           <t>1731443703.518237</t>
         </is>
       </c>
-      <c r="E17" t="inlineStr">
+      <c r="G17" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731443699.459657.png</t>
         </is>
       </c>
-      <c r="F17" t="inlineStr">
+      <c r="H17" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731443703.518237.png</t>
         </is>
       </c>
-      <c r="G17" t="inlineStr">
+      <c r="I17" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I17" t="n">
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K17" t="n">
         <v>497</v>
       </c>
-      <c r="J17" t="n">
+      <c r="L17" t="n">
         <v>497.15</v>
       </c>
-      <c r="K17" t="n">
+      <c r="M17" t="n">
         <v>-0.1499999999999773</v>
+      </c>
+      <c r="N17" t="n">
+        <v>-0.03</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
-      <c r="B18" t="inlineStr">
+      <c r="B18" t="n">
+        <v>16</v>
+      </c>
+      <c r="C18" t="n">
+        <v>16</v>
+      </c>
+      <c r="D18" t="inlineStr">
         <is>
           <t>ROSN</t>
         </is>
       </c>
-      <c r="C18" t="inlineStr">
+      <c r="E18" t="inlineStr">
         <is>
           <t>1731443705.2960465</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr"/>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>./test_images/ROSN1731443705.2960465.png</t>
         </is>
       </c>
       <c r="F18" t="inlineStr"/>
       <c r="G18" t="inlineStr">
         <is>
+          <t>./test_images/ROSN1731443705.2960465.png</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr"/>
+      <c r="I18" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H18" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I18" t="n">
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K18" t="n">
         <v>493.7</v>
       </c>
-      <c r="J18" t="n">
-        <v>493.7</v>
-      </c>
-      <c r="K18" t="n">
-        <v>0</v>
+      <c r="L18" t="n">
+        <v>492.9</v>
+      </c>
+      <c r="M18" t="n">
+        <v>-0.8000000000000114</v>
+      </c>
+      <c r="N18" t="n">
+        <v>-0.16</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
-      <c r="B19" t="inlineStr">
+      <c r="B19" t="n">
+        <v>17</v>
+      </c>
+      <c r="C19" t="n">
+        <v>17</v>
+      </c>
+      <c r="D19" t="inlineStr">
         <is>
           <t>MOEX</t>
         </is>
       </c>
-      <c r="C19" t="inlineStr">
+      <c r="E19" t="inlineStr">
         <is>
           <t>1731443706.8221667</t>
         </is>
       </c>
-      <c r="D19" t="inlineStr">
+      <c r="F19" t="inlineStr">
         <is>
           <t>1731443707.028845</t>
         </is>
       </c>
-      <c r="E19" t="inlineStr">
+      <c r="G19" t="inlineStr">
         <is>
           <t>./test_images/MOEX1731443706.8221667.png</t>
         </is>
       </c>
-      <c r="F19" t="inlineStr">
+      <c r="H19" t="inlineStr">
         <is>
           <t>./test_images/MOEX1731443707.028845.png</t>
         </is>
       </c>
-      <c r="G19" t="inlineStr">
+      <c r="I19" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H19" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I19" t="n">
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K19" t="n">
         <v>223.94</v>
       </c>
-      <c r="J19" t="n">
+      <c r="L19" t="n">
         <v>224.33</v>
       </c>
-      <c r="K19" t="n">
+      <c r="M19" t="n">
         <v>0.3900000000000148</v>
+      </c>
+      <c r="N19" t="n">
+        <v>0.17</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
-      <c r="B20" t="inlineStr">
+      <c r="B20" t="n">
+        <v>18</v>
+      </c>
+      <c r="C20" t="n">
+        <v>18</v>
+      </c>
+      <c r="D20" t="inlineStr">
         <is>
           <t>MOEX</t>
         </is>
       </c>
-      <c r="C20" t="inlineStr">
+      <c r="E20" t="inlineStr">
         <is>
           <t>1731443707.9387345</t>
         </is>
       </c>
-      <c r="D20" t="inlineStr">
+      <c r="F20" t="inlineStr">
         <is>
           <t>1731443708.6049285</t>
         </is>
       </c>
-      <c r="E20" t="inlineStr">
+      <c r="G20" t="inlineStr">
         <is>
           <t>./test_images/MOEX1731443707.9387345.png</t>
         </is>
       </c>
-      <c r="F20" t="inlineStr">
+      <c r="H20" t="inlineStr">
         <is>
           <t>./test_images/MOEX1731443708.6049285.png</t>
         </is>
       </c>
-      <c r="G20" t="inlineStr">
+      <c r="I20" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H20" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I20" t="n">
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K20" t="n">
         <v>223.91</v>
       </c>
-      <c r="J20" t="n">
+      <c r="L20" t="n">
         <v>224</v>
       </c>
-      <c r="K20" t="n">
+      <c r="M20" t="n">
         <v>0.09000000000000341</v>
+      </c>
+      <c r="N20" t="n">
+        <v>0.04</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
-      <c r="B21" t="inlineStr">
+      <c r="B21" t="n">
+        <v>19</v>
+      </c>
+      <c r="C21" t="n">
+        <v>19</v>
+      </c>
+      <c r="D21" t="inlineStr">
         <is>
           <t>MOEX</t>
         </is>
       </c>
-      <c r="C21" t="inlineStr">
+      <c r="E21" t="inlineStr">
         <is>
           <t>1731443708.9245965</t>
         </is>
       </c>
-      <c r="D21" t="inlineStr">
+      <c r="F21" t="inlineStr">
         <is>
           <t>1731443710.1865158</t>
         </is>
       </c>
-      <c r="E21" t="inlineStr">
+      <c r="G21" t="inlineStr">
         <is>
           <t>./test_images/MOEX1731443708.9245965.png</t>
         </is>
       </c>
-      <c r="F21" t="inlineStr">
+      <c r="H21" t="inlineStr">
         <is>
           <t>./test_images/MOEX1731443710.1865158.png</t>
         </is>
       </c>
-      <c r="G21" t="inlineStr">
+      <c r="I21" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H21" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I21" t="n">
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K21" t="n">
         <v>223.52</v>
       </c>
-      <c r="J21" t="n">
+      <c r="L21" t="n">
         <v>223.1</v>
       </c>
-      <c r="K21" t="n">
+      <c r="M21" t="n">
         <v>-0.4200000000000159</v>
+      </c>
+      <c r="N21" t="n">
+        <v>-0.19</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
-      <c r="B22" t="inlineStr">
+      <c r="B22" t="n">
+        <v>20</v>
+      </c>
+      <c r="C22" t="n">
+        <v>20</v>
+      </c>
+      <c r="D22" t="inlineStr">
         <is>
           <t>MOEX</t>
         </is>
       </c>
-      <c r="C22" t="inlineStr">
+      <c r="E22" t="inlineStr">
         <is>
           <t>1731443710.7246416</t>
         </is>
       </c>
-      <c r="D22" t="inlineStr">
+      <c r="F22" t="inlineStr">
         <is>
           <t>1731443711.3860264</t>
         </is>
       </c>
-      <c r="E22" t="inlineStr">
+      <c r="G22" t="inlineStr">
         <is>
           <t>./test_images/MOEX1731443710.7246416.png</t>
         </is>
       </c>
-      <c r="F22" t="inlineStr">
+      <c r="H22" t="inlineStr">
         <is>
           <t>./test_images/MOEX1731443711.3860264.png</t>
         </is>
       </c>
-      <c r="G22" t="inlineStr">
+      <c r="I22" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H22" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I22" t="n">
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K22" t="n">
         <v>222.41</v>
       </c>
-      <c r="J22" t="n">
+      <c r="L22" t="n">
         <v>224.7</v>
       </c>
-      <c r="K22" t="n">
+      <c r="M22" t="n">
         <v>2.289999999999992</v>
+      </c>
+      <c r="N22" t="n">
+        <v>1.03</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
-      <c r="B23" t="inlineStr">
+      <c r="B23" t="n">
+        <v>21</v>
+      </c>
+      <c r="C23" t="n">
+        <v>21</v>
+      </c>
+      <c r="D23" t="inlineStr">
         <is>
           <t>MOEX</t>
         </is>
       </c>
-      <c r="C23" t="inlineStr">
+      <c r="E23" t="inlineStr">
         <is>
           <t>1731443712.9220881</t>
         </is>
       </c>
-      <c r="D23" t="inlineStr">
+      <c r="F23" t="inlineStr">
         <is>
           <t>1731443713.8517056</t>
         </is>
       </c>
-      <c r="E23" t="inlineStr">
+      <c r="G23" t="inlineStr">
         <is>
           <t>./test_images/MOEX1731443712.9220881.png</t>
         </is>
       </c>
-      <c r="F23" t="inlineStr">
+      <c r="H23" t="inlineStr">
         <is>
           <t>./test_images/MOEX1731443713.8517056.png</t>
         </is>
       </c>
-      <c r="G23" t="inlineStr">
+      <c r="I23" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H23" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I23" t="n">
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K23" t="n">
         <v>225.02</v>
       </c>
-      <c r="J23" t="n">
+      <c r="L23" t="n">
         <v>225.15</v>
       </c>
-      <c r="K23" t="n">
+      <c r="M23" t="n">
         <v>0.1299999999999955</v>
+      </c>
+      <c r="N23" t="n">
+        <v>0.06</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
-      <c r="B24" t="inlineStr">
+      <c r="B24" t="n">
+        <v>22</v>
+      </c>
+      <c r="C24" t="n">
+        <v>22</v>
+      </c>
+      <c r="D24" t="inlineStr">
         <is>
           <t>MOEX</t>
         </is>
       </c>
-      <c r="C24" t="inlineStr">
+      <c r="E24" t="inlineStr">
         <is>
           <t>1731443717.654471</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr"/>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>./test_images/MOEX1731443717.654471.png</t>
         </is>
       </c>
       <c r="F24" t="inlineStr"/>
       <c r="G24" t="inlineStr">
         <is>
+          <t>./test_images/MOEX1731443717.654471.png</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr"/>
+      <c r="I24" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H24" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I24" t="n">
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K24" t="n">
         <v>223.6</v>
       </c>
-      <c r="J24" t="n">
-        <v>223.6</v>
-      </c>
-      <c r="K24" t="n">
-        <v>0</v>
+      <c r="L24" t="n">
+        <v>223.39</v>
+      </c>
+      <c r="M24" t="n">
+        <v>-0.210000000000008</v>
+      </c>
+      <c r="N24" t="n">
+        <v>-0.09</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
-      <c r="B25" t="inlineStr">
+      <c r="B25" t="n">
+        <v>23</v>
+      </c>
+      <c r="C25" t="n">
+        <v>23</v>
+      </c>
+      <c r="D25" t="inlineStr">
         <is>
           <t>NVTK</t>
         </is>
       </c>
-      <c r="C25" t="inlineStr">
+      <c r="E25" t="inlineStr">
         <is>
           <t>1731443718.0142498</t>
         </is>
       </c>
-      <c r="D25" t="inlineStr">
+      <c r="F25" t="inlineStr">
         <is>
           <t>1731443718.0646765</t>
         </is>
       </c>
-      <c r="E25" t="inlineStr">
+      <c r="G25" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731443718.0142498.png</t>
         </is>
       </c>
-      <c r="F25" t="inlineStr">
+      <c r="H25" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731443718.0646765.png</t>
         </is>
       </c>
-      <c r="G25" t="inlineStr">
+      <c r="I25" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H25" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I25" t="n">
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K25" t="n">
         <v>1010</v>
       </c>
-      <c r="J25" t="n">
+      <c r="L25" t="n">
         <v>1009.4</v>
       </c>
-      <c r="K25" t="n">
+      <c r="M25" t="n">
         <v>0.6000000000000227</v>
+      </c>
+      <c r="N25" t="n">
+        <v>0.06</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
-      <c r="B26" t="inlineStr">
+      <c r="B26" t="n">
+        <v>24</v>
+      </c>
+      <c r="C26" t="n">
+        <v>24</v>
+      </c>
+      <c r="D26" t="inlineStr">
         <is>
           <t>NVTK</t>
         </is>
       </c>
-      <c r="C26" t="inlineStr">
+      <c r="E26" t="inlineStr">
         <is>
           <t>1731443718.1850348</t>
         </is>
       </c>
-      <c r="D26" t="inlineStr">
+      <c r="F26" t="inlineStr">
         <is>
           <t>1731443718.235899</t>
         </is>
       </c>
-      <c r="E26" t="inlineStr">
+      <c r="G26" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731443718.1850348.png</t>
         </is>
       </c>
-      <c r="F26" t="inlineStr">
+      <c r="H26" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731443718.235899.png</t>
         </is>
       </c>
-      <c r="G26" t="inlineStr">
+      <c r="I26" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H26" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I26" t="n">
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K26" t="n">
         <v>1011</v>
       </c>
-      <c r="J26" t="n">
+      <c r="L26" t="n">
         <v>1008.8</v>
       </c>
-      <c r="K26" t="n">
+      <c r="M26" t="n">
         <v>2.200000000000045</v>
+      </c>
+      <c r="N26" t="n">
+        <v>0.22</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
-      <c r="B27" t="inlineStr">
+      <c r="B27" t="n">
+        <v>25</v>
+      </c>
+      <c r="C27" t="n">
+        <v>25</v>
+      </c>
+      <c r="D27" t="inlineStr">
         <is>
           <t>NVTK</t>
         </is>
       </c>
-      <c r="C27" t="inlineStr">
+      <c r="E27" t="inlineStr">
         <is>
           <t>1731443721.3884625</t>
         </is>
       </c>
-      <c r="D27" t="inlineStr">
+      <c r="F27" t="inlineStr">
         <is>
           <t>1731443721.475466</t>
         </is>
       </c>
-      <c r="E27" t="inlineStr">
+      <c r="G27" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731443721.3884625.png</t>
         </is>
       </c>
-      <c r="F27" t="inlineStr">
+      <c r="H27" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731443721.475466.png</t>
         </is>
       </c>
-      <c r="G27" t="inlineStr">
+      <c r="I27" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H27" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I27" t="n">
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K27" t="n">
         <v>1000</v>
       </c>
-      <c r="J27" t="n">
+      <c r="L27" t="n">
         <v>1002</v>
       </c>
-      <c r="K27" t="n">
+      <c r="M27" t="n">
         <v>2</v>
+      </c>
+      <c r="N27" t="n">
+        <v>0.2</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
-      <c r="B28" t="inlineStr">
+      <c r="B28" t="n">
+        <v>26</v>
+      </c>
+      <c r="C28" t="n">
+        <v>26</v>
+      </c>
+      <c r="D28" t="inlineStr">
         <is>
           <t>NVTK</t>
         </is>
       </c>
-      <c r="C28" t="inlineStr">
+      <c r="E28" t="inlineStr">
         <is>
           <t>1731443722.996895</t>
         </is>
       </c>
-      <c r="D28" t="inlineStr">
+      <c r="F28" t="inlineStr">
         <is>
           <t>1731443723.7166665</t>
         </is>
       </c>
-      <c r="E28" t="inlineStr">
+      <c r="G28" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731443722.996895.png</t>
         </is>
       </c>
-      <c r="F28" t="inlineStr">
+      <c r="H28" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731443723.7166665.png</t>
         </is>
       </c>
-      <c r="G28" t="inlineStr">
+      <c r="I28" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H28" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I28" t="n">
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K28" t="n">
         <v>1008</v>
       </c>
-      <c r="J28" t="n">
+      <c r="L28" t="n">
         <v>1008.8</v>
       </c>
-      <c r="K28" t="n">
+      <c r="M28" t="n">
         <v>-0.7999999999999545</v>
+      </c>
+      <c r="N28" t="n">
+        <v>-0.08</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
-      <c r="B29" t="inlineStr">
+      <c r="B29" t="n">
+        <v>27</v>
+      </c>
+      <c r="C29" t="n">
+        <v>27</v>
+      </c>
+      <c r="D29" t="inlineStr">
         <is>
           <t>NVTK</t>
         </is>
       </c>
-      <c r="C29" t="inlineStr">
+      <c r="E29" t="inlineStr">
         <is>
           <t>1731443725.0854824</t>
         </is>
       </c>
-      <c r="D29" t="inlineStr">
+      <c r="F29" t="inlineStr">
         <is>
           <t>1731443725.6288893</t>
         </is>
       </c>
-      <c r="E29" t="inlineStr">
+      <c r="G29" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731443725.0854824.png</t>
         </is>
       </c>
-      <c r="F29" t="inlineStr">
+      <c r="H29" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731443725.6288893.png</t>
         </is>
       </c>
-      <c r="G29" t="inlineStr">
+      <c r="I29" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H29" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I29" t="n">
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K29" t="n">
         <v>1010.4</v>
       </c>
-      <c r="J29" t="n">
+      <c r="L29" t="n">
         <v>1009.6</v>
       </c>
-      <c r="K29" t="n">
+      <c r="M29" t="n">
         <v>0.7999999999999545</v>
+      </c>
+      <c r="N29" t="n">
+        <v>0.08</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
-      <c r="B30" t="inlineStr">
+      <c r="B30" t="n">
+        <v>28</v>
+      </c>
+      <c r="C30" t="n">
+        <v>28</v>
+      </c>
+      <c r="D30" t="inlineStr">
         <is>
           <t>CNY</t>
         </is>
       </c>
-      <c r="C30" t="inlineStr">
+      <c r="E30" t="inlineStr">
         <is>
           <t>1731443729.4129057</t>
-        </is>
-      </c>
-      <c r="D30" t="inlineStr"/>
-      <c r="E30" t="inlineStr">
-        <is>
-          <t>./test_images/CNY1731443729.4129057.png</t>
         </is>
       </c>
       <c r="F30" t="inlineStr"/>
       <c r="G30" t="inlineStr">
         <is>
+          <t>./test_images/CNY1731443729.4129057.png</t>
+        </is>
+      </c>
+      <c r="H30" t="inlineStr"/>
+      <c r="I30" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H30" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I30" t="n">
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K30" t="n">
         <v>11.923</v>
       </c>
-      <c r="J30" t="n">
-        <v>11.923</v>
-      </c>
-      <c r="K30" t="n">
-        <v>0</v>
+      <c r="L30" t="n">
+        <v>11.928</v>
+      </c>
+      <c r="M30" t="n">
+        <v>0.005000000000000782</v>
+      </c>
+      <c r="N30" t="n">
+        <v>0.04</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
-      <c r="B31" t="inlineStr">
+      <c r="B31" t="n">
+        <v>29</v>
+      </c>
+      <c r="C31" t="n">
+        <v>29</v>
+      </c>
+      <c r="D31" t="inlineStr">
         <is>
           <t>GMKN</t>
         </is>
       </c>
-      <c r="C31" t="inlineStr">
+      <c r="E31" t="inlineStr">
         <is>
           <t>1731443740.8695114</t>
         </is>
       </c>
-      <c r="D31" t="inlineStr">
+      <c r="F31" t="inlineStr">
         <is>
           <t>1731443740.9266973</t>
         </is>
       </c>
-      <c r="E31" t="inlineStr">
+      <c r="G31" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731443740.8695114.png</t>
         </is>
       </c>
-      <c r="F31" t="inlineStr">
+      <c r="H31" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731443740.9266973.png</t>
         </is>
       </c>
-      <c r="G31" t="inlineStr">
+      <c r="I31" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H31" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I31" t="n">
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K31" t="n">
         <v>124.42</v>
       </c>
-      <c r="J31" t="n">
+      <c r="L31" t="n">
         <v>124.4</v>
       </c>
-      <c r="K31" t="n">
+      <c r="M31" t="n">
         <v>0.01999999999999602</v>
+      </c>
+      <c r="N31" t="n">
+        <v>0.02</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
-      <c r="B32" t="inlineStr">
+      <c r="B32" t="n">
+        <v>30</v>
+      </c>
+      <c r="C32" t="n">
+        <v>30</v>
+      </c>
+      <c r="D32" t="inlineStr">
         <is>
           <t>GMKN</t>
         </is>
       </c>
-      <c r="C32" t="inlineStr">
+      <c r="E32" t="inlineStr">
         <is>
           <t>1731443741.061686</t>
         </is>
       </c>
-      <c r="D32" t="inlineStr">
+      <c r="F32" t="inlineStr">
         <is>
           <t>1731443742.6362689</t>
         </is>
       </c>
-      <c r="E32" t="inlineStr">
+      <c r="G32" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731443741.061686.png</t>
         </is>
       </c>
-      <c r="F32" t="inlineStr">
+      <c r="H32" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731443742.6362689.png</t>
         </is>
       </c>
-      <c r="G32" t="inlineStr">
+      <c r="I32" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H32" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I32" t="n">
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K32" t="n">
         <v>124.52</v>
       </c>
-      <c r="J32" t="n">
+      <c r="L32" t="n">
         <v>124.36</v>
       </c>
-      <c r="K32" t="n">
+      <c r="M32" t="n">
         <v>0.1599999999999966</v>
+      </c>
+      <c r="N32" t="n">
+        <v>0.13</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
-      <c r="B33" t="inlineStr">
+      <c r="B33" t="n">
+        <v>31</v>
+      </c>
+      <c r="C33" t="n">
+        <v>31</v>
+      </c>
+      <c r="D33" t="inlineStr">
         <is>
           <t>NLMK</t>
         </is>
       </c>
-      <c r="C33" t="inlineStr">
+      <c r="E33" t="inlineStr">
         <is>
           <t>1731443747.5442624</t>
         </is>
       </c>
-      <c r="D33" t="inlineStr">
+      <c r="F33" t="inlineStr">
         <is>
           <t>1731443748.1643984</t>
         </is>
       </c>
-      <c r="E33" t="inlineStr">
+      <c r="G33" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731443747.5442624.png</t>
         </is>
       </c>
-      <c r="F33" t="inlineStr">
+      <c r="H33" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731443748.1643984.png</t>
         </is>
       </c>
-      <c r="G33" t="inlineStr">
+      <c r="I33" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H33" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I33" t="n">
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K33" t="n">
         <v>160.8</v>
       </c>
-      <c r="J33" t="n">
+      <c r="L33" t="n">
         <v>160.98</v>
       </c>
-      <c r="K33" t="n">
+      <c r="M33" t="n">
         <v>0.1799999999999784</v>
+      </c>
+      <c r="N33" t="n">
+        <v>0.11</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
-      <c r="B34" t="inlineStr">
+      <c r="B34" t="n">
+        <v>32</v>
+      </c>
+      <c r="C34" t="n">
+        <v>32</v>
+      </c>
+      <c r="D34" t="inlineStr">
         <is>
           <t>NLMK</t>
         </is>
       </c>
-      <c r="C34" t="inlineStr">
+      <c r="E34" t="inlineStr">
         <is>
           <t>1731443749.9459047</t>
         </is>
       </c>
-      <c r="D34" t="inlineStr">
+      <c r="F34" t="inlineStr">
         <is>
           <t>1731443752.2347941</t>
         </is>
       </c>
-      <c r="E34" t="inlineStr">
+      <c r="G34" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731443749.9459047.png</t>
         </is>
       </c>
-      <c r="F34" t="inlineStr">
+      <c r="H34" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731443752.2347941.png</t>
         </is>
       </c>
-      <c r="G34" t="inlineStr">
+      <c r="I34" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H34" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I34" t="n">
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K34" t="n">
         <v>160.7</v>
       </c>
-      <c r="J34" t="n">
+      <c r="L34" t="n">
         <v>160.3</v>
       </c>
-      <c r="K34" t="n">
+      <c r="M34" t="n">
         <v>-0.3999999999999773</v>
+      </c>
+      <c r="N34" t="n">
+        <v>-0.25</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
-      <c r="B35" t="inlineStr">
+      <c r="B35" t="n">
+        <v>33</v>
+      </c>
+      <c r="C35" t="n">
+        <v>33</v>
+      </c>
+      <c r="D35" t="inlineStr">
         <is>
           <t>NLMK</t>
         </is>
       </c>
-      <c r="C35" t="inlineStr">
+      <c r="E35" t="inlineStr">
         <is>
           <t>1731443754.3157027</t>
         </is>
       </c>
-      <c r="D35" t="inlineStr">
+      <c r="F35" t="inlineStr">
         <is>
           <t>1731443755.5997994</t>
         </is>
       </c>
-      <c r="E35" t="inlineStr">
+      <c r="G35" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731443754.3157027.png</t>
         </is>
       </c>
-      <c r="F35" t="inlineStr">
+      <c r="H35" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731443755.5997994.png</t>
         </is>
       </c>
-      <c r="G35" t="inlineStr">
+      <c r="I35" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H35" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I35" t="n">
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K35" t="n">
         <v>160.94</v>
       </c>
-      <c r="J35" t="n">
+      <c r="L35" t="n">
         <v>160.86</v>
       </c>
-      <c r="K35" t="n">
+      <c r="M35" t="n">
         <v>0.07999999999998408</v>
+      </c>
+      <c r="N35" t="n">
+        <v>0.05</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
-      <c r="B36" t="inlineStr">
+      <c r="B36" t="n">
+        <v>34</v>
+      </c>
+      <c r="C36" t="n">
+        <v>34</v>
+      </c>
+      <c r="D36" t="inlineStr">
         <is>
           <t>MAGN</t>
         </is>
       </c>
-      <c r="C36" t="inlineStr">
+      <c r="E36" t="inlineStr">
         <is>
           <t>1731443758.7629256</t>
         </is>
       </c>
-      <c r="D36" t="inlineStr">
+      <c r="F36" t="inlineStr">
         <is>
           <t>1731443759.4568827</t>
         </is>
       </c>
-      <c r="E36" t="inlineStr">
+      <c r="G36" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731443758.7629256.png</t>
         </is>
       </c>
-      <c r="F36" t="inlineStr">
+      <c r="H36" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731443759.4568827.png</t>
         </is>
       </c>
-      <c r="G36" t="inlineStr">
+      <c r="I36" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H36" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I36" t="n">
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K36" t="n">
         <v>49.065</v>
       </c>
-      <c r="J36" t="n">
+      <c r="L36" t="n">
         <v>49.09</v>
       </c>
-      <c r="K36" t="n">
+      <c r="M36" t="n">
         <v>0.02500000000000568</v>
+      </c>
+      <c r="N36" t="n">
+        <v>0.05</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
         <v>35</v>
       </c>
-      <c r="B37" t="inlineStr">
+      <c r="B37" t="n">
+        <v>35</v>
+      </c>
+      <c r="C37" t="n">
+        <v>35</v>
+      </c>
+      <c r="D37" t="inlineStr">
         <is>
           <t>MAGN</t>
         </is>
       </c>
-      <c r="C37" t="inlineStr">
+      <c r="E37" t="inlineStr">
         <is>
           <t>1731443760.8574088</t>
         </is>
       </c>
-      <c r="D37" t="inlineStr">
+      <c r="F37" t="inlineStr">
         <is>
           <t>1731443762.640977</t>
         </is>
       </c>
-      <c r="E37" t="inlineStr">
+      <c r="G37" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731443760.8574088.png</t>
         </is>
       </c>
-      <c r="F37" t="inlineStr">
+      <c r="H37" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731443762.640977.png</t>
         </is>
       </c>
-      <c r="G37" t="inlineStr">
+      <c r="I37" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H37" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I37" t="n">
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K37" t="n">
         <v>49.05</v>
       </c>
-      <c r="J37" t="n">
+      <c r="L37" t="n">
         <v>48.715</v>
       </c>
-      <c r="K37" t="n">
+      <c r="M37" t="n">
         <v>-0.3349999999999937</v>
+      </c>
+      <c r="N37" t="n">
+        <v>-0.6799999999999999</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
         <v>36</v>
       </c>
-      <c r="B38" t="inlineStr">
+      <c r="B38" t="n">
+        <v>36</v>
+      </c>
+      <c r="C38" t="n">
+        <v>36</v>
+      </c>
+      <c r="D38" t="inlineStr">
         <is>
           <t>MAGN</t>
         </is>
       </c>
-      <c r="C38" t="inlineStr">
+      <c r="E38" t="inlineStr">
         <is>
           <t>1731443762.8932703</t>
         </is>
       </c>
-      <c r="D38" t="inlineStr">
+      <c r="F38" t="inlineStr">
         <is>
           <t>1731443763.1592484</t>
         </is>
       </c>
-      <c r="E38" t="inlineStr">
+      <c r="G38" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731443762.8932703.png</t>
         </is>
       </c>
-      <c r="F38" t="inlineStr">
+      <c r="H38" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731443763.1592484.png</t>
         </is>
       </c>
-      <c r="G38" t="inlineStr">
+      <c r="I38" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H38" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I38" t="n">
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K38" t="n">
         <v>48.585</v>
       </c>
-      <c r="J38" t="n">
+      <c r="L38" t="n">
         <v>48.73</v>
       </c>
-      <c r="K38" t="n">
+      <c r="M38" t="n">
         <v>0.144999999999996</v>
+      </c>
+      <c r="N38" t="n">
+        <v>0.3</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
         <v>37</v>
       </c>
-      <c r="B39" t="inlineStr">
+      <c r="B39" t="n">
+        <v>37</v>
+      </c>
+      <c r="C39" t="n">
+        <v>37</v>
+      </c>
+      <c r="D39" t="inlineStr">
         <is>
           <t>MAGN</t>
         </is>
       </c>
-      <c r="C39" t="inlineStr">
+      <c r="E39" t="inlineStr">
         <is>
           <t>1731443763.1731832</t>
         </is>
       </c>
-      <c r="D39" t="inlineStr">
+      <c r="F39" t="inlineStr">
         <is>
           <t>1731443767.9285505</t>
         </is>
       </c>
-      <c r="E39" t="inlineStr">
+      <c r="G39" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731443763.1731832.png</t>
         </is>
       </c>
-      <c r="F39" t="inlineStr">
+      <c r="H39" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731443767.9285505.png</t>
         </is>
       </c>
-      <c r="G39" t="inlineStr">
+      <c r="I39" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H39" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I39" t="n">
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K39" t="n">
         <v>48.73</v>
       </c>
-      <c r="J39" t="n">
+      <c r="L39" t="n">
         <v>49.1</v>
       </c>
-      <c r="K39" t="n">
+      <c r="M39" t="n">
         <v>-0.3700000000000045</v>
+      </c>
+      <c r="N39" t="n">
+        <v>-0.76</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
         <v>38</v>
       </c>
-      <c r="B40" t="inlineStr">
+      <c r="B40" t="n">
+        <v>38</v>
+      </c>
+      <c r="C40" t="n">
+        <v>38</v>
+      </c>
+      <c r="D40" t="inlineStr">
         <is>
           <t>MAGN</t>
         </is>
       </c>
-      <c r="C40" t="inlineStr">
+      <c r="E40" t="inlineStr">
         <is>
           <t>1731443768.8041685</t>
-        </is>
-      </c>
-      <c r="D40" t="inlineStr"/>
-      <c r="E40" t="inlineStr">
-        <is>
-          <t>./test_images/MAGN1731443768.8041685.png</t>
         </is>
       </c>
       <c r="F40" t="inlineStr"/>
       <c r="G40" t="inlineStr">
         <is>
+          <t>./test_images/MAGN1731443768.8041685.png</t>
+        </is>
+      </c>
+      <c r="H40" t="inlineStr"/>
+      <c r="I40" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H40" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I40" t="n">
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K40" t="n">
         <v>48.915</v>
       </c>
-      <c r="J40" t="n">
-        <v>48.915</v>
-      </c>
-      <c r="K40" t="n">
-        <v>0</v>
+      <c r="L40" t="n">
+        <v>48.845</v>
+      </c>
+      <c r="M40" t="n">
+        <v>-0.07000000000000028</v>
+      </c>
+      <c r="N40" t="n">
+        <v>-0.14</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
         <v>39</v>
       </c>
-      <c r="B41" t="inlineStr">
+      <c r="B41" t="n">
+        <v>39</v>
+      </c>
+      <c r="C41" t="n">
+        <v>39</v>
+      </c>
+      <c r="D41" t="inlineStr">
         <is>
           <t>CHMF</t>
         </is>
       </c>
-      <c r="C41" t="inlineStr">
+      <c r="E41" t="inlineStr">
         <is>
           <t>1731443771.9705503</t>
         </is>
       </c>
-      <c r="D41" t="inlineStr">
+      <c r="F41" t="inlineStr">
         <is>
           <t>1731443772.5461555</t>
         </is>
       </c>
-      <c r="E41" t="inlineStr">
+      <c r="G41" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731443771.9705503.png</t>
         </is>
       </c>
-      <c r="F41" t="inlineStr">
+      <c r="H41" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731443772.5461555.png</t>
         </is>
       </c>
-      <c r="G41" t="inlineStr">
+      <c r="I41" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H41" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I41" t="n">
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K41" t="n">
         <v>1382.4</v>
       </c>
-      <c r="J41" t="n">
+      <c r="L41" t="n">
         <v>1382</v>
       </c>
-      <c r="K41" t="n">
+      <c r="M41" t="n">
         <v>-0.4000000000000909</v>
+      </c>
+      <c r="N41" t="n">
+        <v>-0.03</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
         <v>40</v>
       </c>
-      <c r="B42" t="inlineStr">
+      <c r="B42" t="n">
+        <v>40</v>
+      </c>
+      <c r="C42" t="n">
+        <v>40</v>
+      </c>
+      <c r="D42" t="inlineStr">
         <is>
           <t>CHMF</t>
         </is>
       </c>
-      <c r="C42" t="inlineStr">
+      <c r="E42" t="inlineStr">
         <is>
           <t>1731443772.7705245</t>
         </is>
       </c>
-      <c r="D42" t="inlineStr">
+      <c r="F42" t="inlineStr">
         <is>
           <t>1731443773.0171885</t>
         </is>
       </c>
-      <c r="E42" t="inlineStr">
+      <c r="G42" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731443772.7705245.png</t>
         </is>
       </c>
-      <c r="F42" t="inlineStr">
+      <c r="H42" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731443773.0171885.png</t>
         </is>
       </c>
-      <c r="G42" t="inlineStr">
+      <c r="I42" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H42" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I42" t="n">
+      <c r="J42" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K42" t="n">
         <v>1380.4</v>
       </c>
-      <c r="J42" t="n">
+      <c r="L42" t="n">
         <v>1381.8</v>
       </c>
-      <c r="K42" t="n">
+      <c r="M42" t="n">
         <v>1.399999999999864</v>
+      </c>
+      <c r="N42" t="n">
+        <v>0.1</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
         <v>41</v>
       </c>
-      <c r="B43" t="inlineStr">
+      <c r="B43" t="n">
+        <v>41</v>
+      </c>
+      <c r="C43" t="n">
+        <v>41</v>
+      </c>
+      <c r="D43" t="inlineStr">
         <is>
           <t>CHMF</t>
         </is>
       </c>
-      <c r="C43" t="inlineStr">
+      <c r="E43" t="inlineStr">
         <is>
           <t>1731443773.0690494</t>
         </is>
       </c>
-      <c r="D43" t="inlineStr">
+      <c r="F43" t="inlineStr">
         <is>
           <t>1731443775.2275245</t>
         </is>
       </c>
-      <c r="E43" t="inlineStr">
+      <c r="G43" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731443773.0690494.png</t>
         </is>
       </c>
-      <c r="F43" t="inlineStr">
+      <c r="H43" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731443775.2275245.png</t>
         </is>
       </c>
-      <c r="G43" t="inlineStr">
+      <c r="I43" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H43" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I43" t="n">
+      <c r="J43" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K43" t="n">
         <v>1379.2</v>
       </c>
-      <c r="J43" t="n">
+      <c r="L43" t="n">
         <v>1375</v>
       </c>
-      <c r="K43" t="n">
+      <c r="M43" t="n">
         <v>-4.200000000000045</v>
+      </c>
+      <c r="N43" t="n">
+        <v>-0.3</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
         <v>42</v>
       </c>
-      <c r="B44" t="inlineStr">
+      <c r="B44" t="n">
+        <v>42</v>
+      </c>
+      <c r="C44" t="n">
+        <v>42</v>
+      </c>
+      <c r="D44" t="inlineStr">
         <is>
           <t>CHMF</t>
         </is>
       </c>
-      <c r="C44" t="inlineStr">
+      <c r="E44" t="inlineStr">
         <is>
           <t>1731443777.7348576</t>
         </is>
       </c>
-      <c r="D44" t="inlineStr">
+      <c r="F44" t="inlineStr">
         <is>
           <t>1731443778.9836252</t>
         </is>
       </c>
-      <c r="E44" t="inlineStr">
+      <c r="G44" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731443777.7348576.png</t>
         </is>
       </c>
-      <c r="F44" t="inlineStr">
+      <c r="H44" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731443778.9836252.png</t>
         </is>
       </c>
-      <c r="G44" t="inlineStr">
+      <c r="I44" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H44" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I44" t="n">
+      <c r="J44" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K44" t="n">
         <v>1380.2</v>
       </c>
-      <c r="J44" t="n">
+      <c r="L44" t="n">
         <v>1379.8</v>
       </c>
-      <c r="K44" t="n">
+      <c r="M44" t="n">
         <v>0.4000000000000909</v>
+      </c>
+      <c r="N44" t="n">
+        <v>0.03</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
         <v>43</v>
       </c>
-      <c r="B45" t="inlineStr">
+      <c r="B45" t="n">
+        <v>43</v>
+      </c>
+      <c r="C45" t="n">
+        <v>43</v>
+      </c>
+      <c r="D45" t="inlineStr">
         <is>
           <t>ALRS</t>
         </is>
       </c>
-      <c r="C45" t="inlineStr">
+      <c r="E45" t="inlineStr">
         <is>
           <t>1731443786.7258387</t>
         </is>
       </c>
-      <c r="D45" t="inlineStr">
+      <c r="F45" t="inlineStr">
         <is>
           <t>1731443786.9711225</t>
         </is>
       </c>
-      <c r="E45" t="inlineStr">
+      <c r="G45" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731443786.7258387.png</t>
         </is>
       </c>
-      <c r="F45" t="inlineStr">
+      <c r="H45" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731443786.9711225.png</t>
         </is>
       </c>
-      <c r="G45" t="inlineStr">
+      <c r="I45" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H45" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I45" t="n">
+      <c r="J45" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K45" t="n">
         <v>58.8</v>
       </c>
-      <c r="J45" t="n">
+      <c r="L45" t="n">
         <v>59.39</v>
       </c>
-      <c r="K45" t="n">
+      <c r="M45" t="n">
         <v>0.5900000000000034</v>
+      </c>
+      <c r="N45" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
         <v>44</v>
       </c>
-      <c r="B46" t="inlineStr">
+      <c r="B46" t="n">
+        <v>44</v>
+      </c>
+      <c r="C46" t="n">
+        <v>44</v>
+      </c>
+      <c r="D46" t="inlineStr">
         <is>
           <t>ALRS</t>
         </is>
       </c>
-      <c r="C46" t="inlineStr">
+      <c r="E46" t="inlineStr">
         <is>
           <t>1731443787.598757</t>
         </is>
       </c>
-      <c r="D46" t="inlineStr">
+      <c r="F46" t="inlineStr">
         <is>
           <t>1731443788.1471977</t>
         </is>
       </c>
-      <c r="E46" t="inlineStr">
+      <c r="G46" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731443787.598757.png</t>
         </is>
       </c>
-      <c r="F46" t="inlineStr">
+      <c r="H46" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731443788.1471977.png</t>
         </is>
       </c>
-      <c r="G46" t="inlineStr">
+      <c r="I46" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H46" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I46" t="n">
+      <c r="J46" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K46" t="n">
         <v>59.51</v>
       </c>
-      <c r="J46" t="n">
+      <c r="L46" t="n">
         <v>59.49</v>
       </c>
-      <c r="K46" t="n">
+      <c r="M46" t="n">
         <v>0.01999999999999602</v>
+      </c>
+      <c r="N46" t="n">
+        <v>0.03</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
         <v>45</v>
       </c>
-      <c r="B47" t="inlineStr">
+      <c r="B47" t="n">
+        <v>45</v>
+      </c>
+      <c r="C47" t="n">
+        <v>45</v>
+      </c>
+      <c r="D47" t="inlineStr">
         <is>
           <t>ALRS</t>
         </is>
       </c>
-      <c r="C47" t="inlineStr">
+      <c r="E47" t="inlineStr">
         <is>
           <t>1731443789.960224</t>
         </is>
       </c>
-      <c r="D47" t="inlineStr">
+      <c r="F47" t="inlineStr">
         <is>
           <t>1731443790.6845899</t>
         </is>
       </c>
-      <c r="E47" t="inlineStr">
+      <c r="G47" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731443789.960224.png</t>
         </is>
       </c>
-      <c r="F47" t="inlineStr">
+      <c r="H47" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731443790.6845899.png</t>
         </is>
       </c>
-      <c r="G47" t="inlineStr">
+      <c r="I47" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H47" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I47" t="n">
+      <c r="J47" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K47" t="n">
         <v>59.71</v>
       </c>
-      <c r="J47" t="n">
+      <c r="L47" t="n">
         <v>59.64</v>
       </c>
-      <c r="K47" t="n">
+      <c r="M47" t="n">
         <v>0.07000000000000028</v>
+      </c>
+      <c r="N47" t="n">
+        <v>0.12</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
         <v>46</v>
       </c>
-      <c r="B48" t="inlineStr">
+      <c r="B48" t="n">
+        <v>46</v>
+      </c>
+      <c r="C48" t="n">
+        <v>46</v>
+      </c>
+      <c r="D48" t="inlineStr">
         <is>
           <t>VTBR</t>
         </is>
       </c>
-      <c r="C48" t="inlineStr">
+      <c r="E48" t="inlineStr">
         <is>
           <t>1731443794.4276187</t>
         </is>
       </c>
-      <c r="D48" t="inlineStr">
+      <c r="F48" t="inlineStr">
         <is>
           <t>1731443795.3739238</t>
         </is>
       </c>
-      <c r="E48" t="inlineStr">
+      <c r="G48" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731443794.4276187.png</t>
         </is>
       </c>
-      <c r="F48" t="inlineStr">
+      <c r="H48" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731443795.3739238.png</t>
         </is>
       </c>
-      <c r="G48" t="inlineStr">
+      <c r="I48" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H48" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I48" t="n">
+      <c r="J48" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K48" t="n">
         <v>95.88</v>
       </c>
-      <c r="J48" t="n">
+      <c r="L48" t="n">
         <v>95.97</v>
       </c>
-      <c r="K48" t="n">
+      <c r="M48" t="n">
         <v>-0.09000000000000341</v>
+      </c>
+      <c r="N48" t="n">
+        <v>-0.09</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
         <v>47</v>
       </c>
-      <c r="B49" t="inlineStr">
+      <c r="B49" t="n">
+        <v>47</v>
+      </c>
+      <c r="C49" t="n">
+        <v>47</v>
+      </c>
+      <c r="D49" t="inlineStr">
         <is>
           <t>VTBR</t>
         </is>
       </c>
-      <c r="C49" t="inlineStr">
+      <c r="E49" t="inlineStr">
         <is>
           <t>1731443795.4645278</t>
         </is>
       </c>
-      <c r="D49" t="inlineStr">
+      <c r="F49" t="inlineStr">
         <is>
           <t>1731443795.7224703</t>
         </is>
       </c>
-      <c r="E49" t="inlineStr">
+      <c r="G49" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731443795.4645278.png</t>
         </is>
       </c>
-      <c r="F49" t="inlineStr">
+      <c r="H49" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731443795.7224703.png</t>
         </is>
       </c>
-      <c r="G49" t="inlineStr">
+      <c r="I49" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H49" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I49" t="n">
+      <c r="J49" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K49" t="n">
         <v>96.15000000000001</v>
       </c>
-      <c r="J49" t="n">
+      <c r="L49" t="n">
         <v>96.02</v>
       </c>
-      <c r="K49" t="n">
+      <c r="M49" t="n">
         <v>0.1300000000000097</v>
+      </c>
+      <c r="N49" t="n">
+        <v>0.14</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
         <v>48</v>
       </c>
-      <c r="B50" t="inlineStr">
+      <c r="B50" t="n">
+        <v>48</v>
+      </c>
+      <c r="C50" t="n">
+        <v>48</v>
+      </c>
+      <c r="D50" t="inlineStr">
         <is>
           <t>VTBR</t>
         </is>
       </c>
-      <c r="C50" t="inlineStr">
+      <c r="E50" t="inlineStr">
         <is>
           <t>1731443795.8576434</t>
         </is>
       </c>
-      <c r="D50" t="inlineStr">
+      <c r="F50" t="inlineStr">
         <is>
           <t>1731443798.1715465</t>
         </is>
       </c>
-      <c r="E50" t="inlineStr">
+      <c r="G50" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731443795.8576434.png</t>
         </is>
       </c>
-      <c r="F50" t="inlineStr">
+      <c r="H50" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731443798.1715465.png</t>
         </is>
       </c>
-      <c r="G50" t="inlineStr">
+      <c r="I50" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H50" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I50" t="n">
+      <c r="J50" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K50" t="n">
         <v>96.2</v>
       </c>
-      <c r="J50" t="n">
+      <c r="L50" t="n">
         <v>95.98</v>
       </c>
-      <c r="K50" t="n">
+      <c r="M50" t="n">
         <v>0.2199999999999989</v>
+      </c>
+      <c r="N50" t="n">
+        <v>0.23</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
         <v>49</v>
       </c>
-      <c r="B51" t="inlineStr">
+      <c r="B51" t="n">
+        <v>49</v>
+      </c>
+      <c r="C51" t="n">
+        <v>49</v>
+      </c>
+      <c r="D51" t="inlineStr">
         <is>
           <t>SELG</t>
         </is>
       </c>
-      <c r="C51" t="inlineStr">
+      <c r="E51" t="inlineStr">
         <is>
           <t>1731443801.6226435</t>
         </is>
       </c>
-      <c r="D51" t="inlineStr">
+      <c r="F51" t="inlineStr">
         <is>
           <t>1731443802.794601</t>
         </is>
       </c>
-      <c r="E51" t="inlineStr">
+      <c r="G51" t="inlineStr">
         <is>
           <t>./test_images/SELG1731443801.6226435.png</t>
         </is>
       </c>
-      <c r="F51" t="inlineStr">
+      <c r="H51" t="inlineStr">
         <is>
           <t>./test_images/SELG1731443802.794601.png</t>
         </is>
       </c>
-      <c r="G51" t="inlineStr">
+      <c r="I51" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H51" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I51" t="n">
+      <c r="J51" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K51" t="n">
         <v>55.83</v>
       </c>
-      <c r="J51" t="n">
+      <c r="L51" t="n">
         <v>55.79</v>
       </c>
-      <c r="K51" t="n">
+      <c r="M51" t="n">
         <v>-0.03999999999999915</v>
+      </c>
+      <c r="N51" t="n">
+        <v>-0.06999999999999999</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
         <v>50</v>
       </c>
-      <c r="B52" t="inlineStr">
+      <c r="B52" t="n">
+        <v>50</v>
+      </c>
+      <c r="C52" t="n">
+        <v>50</v>
+      </c>
+      <c r="D52" t="inlineStr">
         <is>
           <t>SELG</t>
         </is>
       </c>
-      <c r="C52" t="inlineStr">
+      <c r="E52" t="inlineStr">
         <is>
           <t>1731443803.3685741</t>
         </is>
       </c>
-      <c r="D52" t="inlineStr">
+      <c r="F52" t="inlineStr">
         <is>
           <t>1731443804.1506689</t>
         </is>
       </c>
-      <c r="E52" t="inlineStr">
+      <c r="G52" t="inlineStr">
         <is>
           <t>./test_images/SELG1731443803.3685741.png</t>
         </is>
       </c>
-      <c r="F52" t="inlineStr">
+      <c r="H52" t="inlineStr">
         <is>
           <t>./test_images/SELG1731443804.1506689.png</t>
         </is>
       </c>
-      <c r="G52" t="inlineStr">
+      <c r="I52" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H52" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I52" t="n">
+      <c r="J52" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K52" t="n">
         <v>55.7</v>
       </c>
-      <c r="J52" t="n">
+      <c r="L52" t="n">
         <v>56.01</v>
       </c>
-      <c r="K52" t="n">
+      <c r="M52" t="n">
         <v>0.3099999999999952</v>
+      </c>
+      <c r="N52" t="n">
+        <v>0.5599999999999999</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
         <v>51</v>
       </c>
-      <c r="B53" t="inlineStr">
+      <c r="B53" t="n">
+        <v>51</v>
+      </c>
+      <c r="C53" t="n">
+        <v>51</v>
+      </c>
+      <c r="D53" t="inlineStr">
         <is>
           <t>SELG</t>
         </is>
       </c>
-      <c r="C53" t="inlineStr">
+      <c r="E53" t="inlineStr">
         <is>
           <t>1731443805.677754</t>
         </is>
       </c>
-      <c r="D53" t="inlineStr">
+      <c r="F53" t="inlineStr">
         <is>
           <t>1731443805.9538763</t>
         </is>
       </c>
-      <c r="E53" t="inlineStr">
+      <c r="G53" t="inlineStr">
         <is>
           <t>./test_images/SELG1731443805.677754.png</t>
         </is>
       </c>
-      <c r="F53" t="inlineStr">
+      <c r="H53" t="inlineStr">
         <is>
           <t>./test_images/SELG1731443805.9538763.png</t>
         </is>
       </c>
-      <c r="G53" t="inlineStr">
+      <c r="I53" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H53" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I53" t="n">
+      <c r="J53" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K53" t="n">
         <v>55.63</v>
       </c>
-      <c r="J53" t="n">
+      <c r="L53" t="n">
         <v>56.12</v>
       </c>
-      <c r="K53" t="n">
+      <c r="M53" t="n">
         <v>0.4899999999999949</v>
+      </c>
+      <c r="N53" t="n">
+        <v>0.88</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
         <v>52</v>
       </c>
-      <c r="B54" t="inlineStr">
+      <c r="B54" t="n">
+        <v>52</v>
+      </c>
+      <c r="C54" t="n">
+        <v>52</v>
+      </c>
+      <c r="D54" t="inlineStr">
         <is>
           <t>SELG</t>
         </is>
       </c>
-      <c r="C54" t="inlineStr">
+      <c r="E54" t="inlineStr">
         <is>
           <t>1731443812.1436203</t>
-        </is>
-      </c>
-      <c r="D54" t="inlineStr"/>
-      <c r="E54" t="inlineStr">
-        <is>
-          <t>./test_images/SELG1731443812.1436203.png</t>
         </is>
       </c>
       <c r="F54" t="inlineStr"/>
       <c r="G54" t="inlineStr">
         <is>
+          <t>./test_images/SELG1731443812.1436203.png</t>
+        </is>
+      </c>
+      <c r="H54" t="inlineStr"/>
+      <c r="I54" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H54" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I54" t="n">
+      <c r="J54" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K54" t="n">
         <v>55.98</v>
       </c>
-      <c r="J54" t="n">
-        <v>55.98</v>
-      </c>
-      <c r="K54" t="n">
-        <v>0</v>
+      <c r="L54" t="n">
+        <v>55.96</v>
+      </c>
+      <c r="M54" t="n">
+        <v>-0.01999999999999602</v>
+      </c>
+      <c r="N54" t="n">
+        <v>-0.04</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
         <v>53</v>
       </c>
-      <c r="B55" t="inlineStr">
+      <c r="B55" t="n">
+        <v>53</v>
+      </c>
+      <c r="C55" t="n">
+        <v>53</v>
+      </c>
+      <c r="D55" t="inlineStr">
         <is>
           <t>SOFL</t>
         </is>
       </c>
-      <c r="C55" t="inlineStr">
+      <c r="E55" t="inlineStr">
         <is>
           <t>1731443818.089776</t>
         </is>
       </c>
-      <c r="D55" t="inlineStr">
+      <c r="F55" t="inlineStr">
         <is>
           <t>1731443821.453893</t>
         </is>
       </c>
-      <c r="E55" t="inlineStr">
+      <c r="G55" t="inlineStr">
         <is>
           <t>./test_images/SOFL1731443818.089776.png</t>
         </is>
       </c>
-      <c r="F55" t="inlineStr">
+      <c r="H55" t="inlineStr">
         <is>
           <t>./test_images/SOFL1731443821.453893.png</t>
         </is>
       </c>
-      <c r="G55" t="inlineStr">
+      <c r="I55" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H55" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I55" t="n">
+      <c r="J55" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K55" t="n">
         <v>142.62</v>
       </c>
-      <c r="J55" t="n">
+      <c r="L55" t="n">
         <v>142.2</v>
       </c>
-      <c r="K55" t="n">
+      <c r="M55" t="n">
         <v>0.4200000000000159</v>
+      </c>
+      <c r="N55" t="n">
+        <v>0.29</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
         <v>54</v>
       </c>
-      <c r="B56" t="inlineStr">
+      <c r="B56" t="n">
+        <v>54</v>
+      </c>
+      <c r="C56" t="n">
+        <v>54</v>
+      </c>
+      <c r="D56" t="inlineStr">
         <is>
           <t>SOFL</t>
         </is>
       </c>
-      <c r="C56" t="inlineStr">
+      <c r="E56" t="inlineStr">
         <is>
           <t>1731443823.1978095</t>
-        </is>
-      </c>
-      <c r="D56" t="inlineStr"/>
-      <c r="E56" t="inlineStr">
-        <is>
-          <t>./test_images/SOFL1731443823.1978095.png</t>
         </is>
       </c>
       <c r="F56" t="inlineStr"/>
       <c r="G56" t="inlineStr">
         <is>
+          <t>./test_images/SOFL1731443823.1978095.png</t>
+        </is>
+      </c>
+      <c r="H56" t="inlineStr"/>
+      <c r="I56" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H56" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I56" t="n">
+      <c r="J56" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K56" t="n">
         <v>141.34</v>
       </c>
-      <c r="J56" t="n">
+      <c r="L56" t="n">
         <v>141.34</v>
       </c>
-      <c r="K56" t="n">
+      <c r="M56" t="n">
+        <v>0</v>
+      </c>
+      <c r="N56" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3107,285 +3615,339 @@
       <c r="A57" s="1" t="n">
         <v>55</v>
       </c>
-      <c r="B57" t="inlineStr">
+      <c r="B57" t="n">
+        <v>55</v>
+      </c>
+      <c r="C57" t="n">
+        <v>55</v>
+      </c>
+      <c r="D57" t="inlineStr">
         <is>
           <t>AFKS</t>
         </is>
       </c>
-      <c r="C57" t="inlineStr">
+      <c r="E57" t="inlineStr">
         <is>
           <t>1731443824.8552713</t>
         </is>
       </c>
-      <c r="D57" t="inlineStr">
+      <c r="F57" t="inlineStr">
         <is>
           <t>1731443825.8136892</t>
         </is>
       </c>
-      <c r="E57" t="inlineStr">
+      <c r="G57" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731443824.8552713.png</t>
         </is>
       </c>
-      <c r="F57" t="inlineStr">
+      <c r="H57" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731443825.8136892.png</t>
         </is>
       </c>
-      <c r="G57" t="inlineStr">
+      <c r="I57" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H57" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I57" t="n">
+      <c r="J57" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K57" t="n">
         <v>20.002</v>
       </c>
-      <c r="J57" t="n">
+      <c r="L57" t="n">
         <v>19.949</v>
       </c>
-      <c r="K57" t="n">
+      <c r="M57" t="n">
         <v>-0.05299999999999727</v>
+      </c>
+      <c r="N57" t="n">
+        <v>-0.26</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
         <v>56</v>
       </c>
-      <c r="B58" t="inlineStr">
+      <c r="B58" t="n">
+        <v>56</v>
+      </c>
+      <c r="C58" t="n">
+        <v>56</v>
+      </c>
+      <c r="D58" t="inlineStr">
         <is>
           <t>AFKS</t>
         </is>
       </c>
-      <c r="C58" t="inlineStr">
+      <c r="E58" t="inlineStr">
         <is>
           <t>1731443826.8648694</t>
         </is>
       </c>
-      <c r="D58" t="inlineStr">
+      <c r="F58" t="inlineStr">
         <is>
           <t>1731443828.071621</t>
         </is>
       </c>
-      <c r="E58" t="inlineStr">
+      <c r="G58" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731443826.8648694.png</t>
         </is>
       </c>
-      <c r="F58" t="inlineStr">
+      <c r="H58" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731443828.071621.png</t>
         </is>
       </c>
-      <c r="G58" t="inlineStr">
+      <c r="I58" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H58" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I58" t="n">
+      <c r="J58" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K58" t="n">
         <v>19.866</v>
       </c>
-      <c r="J58" t="n">
+      <c r="L58" t="n">
         <v>19.858</v>
       </c>
-      <c r="K58" t="n">
+      <c r="M58" t="n">
         <v>-0.007999999999999119</v>
+      </c>
+      <c r="N58" t="n">
+        <v>-0.04</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
         <v>57</v>
       </c>
-      <c r="B59" t="inlineStr">
+      <c r="B59" t="n">
+        <v>57</v>
+      </c>
+      <c r="C59" t="n">
+        <v>57</v>
+      </c>
+      <c r="D59" t="inlineStr">
         <is>
           <t>AFKS</t>
         </is>
       </c>
-      <c r="C59" t="inlineStr">
+      <c r="E59" t="inlineStr">
         <is>
           <t>1731443829.2587192</t>
         </is>
       </c>
-      <c r="D59" t="inlineStr">
+      <c r="F59" t="inlineStr">
         <is>
           <t>1731443829.952287</t>
         </is>
       </c>
-      <c r="E59" t="inlineStr">
+      <c r="G59" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731443829.2587192.png</t>
         </is>
       </c>
-      <c r="F59" t="inlineStr">
+      <c r="H59" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731443829.952287.png</t>
         </is>
       </c>
-      <c r="G59" t="inlineStr">
+      <c r="I59" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H59" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I59" t="n">
+      <c r="J59" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K59" t="n">
         <v>19.924</v>
       </c>
-      <c r="J59" t="n">
+      <c r="L59" t="n">
         <v>19.919</v>
       </c>
-      <c r="K59" t="n">
+      <c r="M59" t="n">
         <v>0.004999999999999005</v>
+      </c>
+      <c r="N59" t="n">
+        <v>0.03</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
         <v>58</v>
       </c>
-      <c r="B60" t="inlineStr">
+      <c r="B60" t="n">
+        <v>58</v>
+      </c>
+      <c r="C60" t="n">
+        <v>58</v>
+      </c>
+      <c r="D60" t="inlineStr">
         <is>
           <t>AFKS</t>
         </is>
       </c>
-      <c r="C60" t="inlineStr">
+      <c r="E60" t="inlineStr">
         <is>
           <t>1731443831.3459742</t>
         </is>
       </c>
-      <c r="D60" t="inlineStr">
+      <c r="F60" t="inlineStr">
         <is>
           <t>1731443832.2544065</t>
         </is>
       </c>
-      <c r="E60" t="inlineStr">
+      <c r="G60" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731443831.3459742.png</t>
         </is>
       </c>
-      <c r="F60" t="inlineStr">
+      <c r="H60" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731443832.2544065.png</t>
         </is>
       </c>
-      <c r="G60" t="inlineStr">
+      <c r="I60" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H60" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I60" t="n">
+      <c r="J60" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K60" t="n">
         <v>19.936</v>
       </c>
-      <c r="J60" t="n">
+      <c r="L60" t="n">
         <v>19.944</v>
       </c>
-      <c r="K60" t="n">
+      <c r="M60" t="n">
         <v>-0.007999999999999119</v>
+      </c>
+      <c r="N60" t="n">
+        <v>-0.04</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
         <v>59</v>
       </c>
-      <c r="B61" t="inlineStr">
+      <c r="B61" t="n">
+        <v>59</v>
+      </c>
+      <c r="C61" t="n">
+        <v>59</v>
+      </c>
+      <c r="D61" t="inlineStr">
         <is>
           <t>AFKS</t>
         </is>
       </c>
-      <c r="C61" t="inlineStr">
+      <c r="E61" t="inlineStr">
         <is>
           <t>1731443833.529833</t>
         </is>
       </c>
-      <c r="D61" t="inlineStr">
+      <c r="F61" t="inlineStr">
         <is>
           <t>1731443833.579092</t>
         </is>
       </c>
-      <c r="E61" t="inlineStr">
+      <c r="G61" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731443833.529833.png</t>
         </is>
       </c>
-      <c r="F61" t="inlineStr">
+      <c r="H61" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731443833.579092.png</t>
         </is>
       </c>
-      <c r="G61" t="inlineStr">
+      <c r="I61" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H61" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I61" t="n">
+      <c r="J61" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K61" t="n">
         <v>19.798</v>
       </c>
-      <c r="J61" t="n">
+      <c r="L61" t="n">
         <v>19.817</v>
       </c>
-      <c r="K61" t="n">
-        <v>0.01899999999999835</v>
+      <c r="M61" t="n">
+        <v>0.0190000000000019</v>
+      </c>
+      <c r="N61" t="n">
+        <v>0.1</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
         <v>60</v>
       </c>
-      <c r="B62" t="inlineStr">
+      <c r="B62" t="n">
+        <v>60</v>
+      </c>
+      <c r="C62" t="n">
+        <v>60</v>
+      </c>
+      <c r="D62" t="inlineStr">
         <is>
           <t>AFKS</t>
         </is>
       </c>
-      <c r="C62" t="inlineStr">
+      <c r="E62" t="inlineStr">
         <is>
           <t>1731443835.0504773</t>
-        </is>
-      </c>
-      <c r="D62" t="inlineStr"/>
-      <c r="E62" t="inlineStr">
-        <is>
-          <t>./test_images/AFKS1731443835.0504773.png</t>
         </is>
       </c>
       <c r="F62" t="inlineStr"/>
       <c r="G62" t="inlineStr">
         <is>
+          <t>./test_images/AFKS1731443835.0504773.png</t>
+        </is>
+      </c>
+      <c r="H62" t="inlineStr"/>
+      <c r="I62" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H62" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I62" t="n">
+      <c r="J62" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K62" t="n">
         <v>19.761</v>
       </c>
-      <c r="J62" t="n">
+      <c r="L62" t="n">
         <v>19.761</v>
       </c>
-      <c r="K62" t="n">
+      <c r="M62" t="n">
+        <v>0</v>
+      </c>
+      <c r="N62" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3393,719 +3955,854 @@
       <c r="A63" s="1" t="n">
         <v>61</v>
       </c>
-      <c r="B63" t="inlineStr">
+      <c r="B63" t="n">
+        <v>61</v>
+      </c>
+      <c r="C63" t="n">
+        <v>61</v>
+      </c>
+      <c r="D63" t="inlineStr">
         <is>
           <t>SIBN</t>
         </is>
       </c>
-      <c r="C63" t="inlineStr">
+      <c r="E63" t="inlineStr">
         <is>
           <t>1731443844.020712</t>
         </is>
       </c>
-      <c r="D63" t="inlineStr">
+      <c r="F63" t="inlineStr">
         <is>
           <t>1731443844.1114674</t>
         </is>
       </c>
-      <c r="E63" t="inlineStr">
+      <c r="G63" t="inlineStr">
         <is>
           <t>./test_images/SIBN1731443844.020712.png</t>
         </is>
       </c>
-      <c r="F63" t="inlineStr">
+      <c r="H63" t="inlineStr">
         <is>
           <t>./test_images/SIBN1731443844.1114674.png</t>
         </is>
       </c>
-      <c r="G63" t="inlineStr">
+      <c r="I63" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H63" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I63" t="n">
+      <c r="J63" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K63" t="n">
         <v>661.1</v>
       </c>
-      <c r="J63" t="n">
+      <c r="L63" t="n">
         <v>660.6</v>
       </c>
-      <c r="K63" t="n">
+      <c r="M63" t="n">
         <v>0.5</v>
+      </c>
+      <c r="N63" t="n">
+        <v>0.08</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
         <v>62</v>
       </c>
-      <c r="B64" t="inlineStr">
+      <c r="B64" t="n">
+        <v>62</v>
+      </c>
+      <c r="C64" t="n">
+        <v>62</v>
+      </c>
+      <c r="D64" t="inlineStr">
         <is>
           <t>SIBN</t>
         </is>
       </c>
-      <c r="C64" t="inlineStr">
+      <c r="E64" t="inlineStr">
         <is>
           <t>1731443844.5213208</t>
         </is>
       </c>
-      <c r="D64" t="inlineStr">
+      <c r="F64" t="inlineStr">
         <is>
           <t>1731443845.5597668</t>
         </is>
       </c>
-      <c r="E64" t="inlineStr">
+      <c r="G64" t="inlineStr">
         <is>
           <t>./test_images/SIBN1731443844.5213208.png</t>
         </is>
       </c>
-      <c r="F64" t="inlineStr">
+      <c r="H64" t="inlineStr">
         <is>
           <t>./test_images/SIBN1731443845.5597668.png</t>
         </is>
       </c>
-      <c r="G64" t="inlineStr">
+      <c r="I64" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H64" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I64" t="n">
+      <c r="J64" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K64" t="n">
         <v>660.95</v>
       </c>
-      <c r="J64" t="n">
+      <c r="L64" t="n">
         <v>658.05</v>
       </c>
-      <c r="K64" t="n">
+      <c r="M64" t="n">
         <v>2.900000000000091</v>
+      </c>
+      <c r="N64" t="n">
+        <v>0.44</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
         <v>63</v>
       </c>
-      <c r="B65" t="inlineStr">
+      <c r="B65" t="n">
+        <v>63</v>
+      </c>
+      <c r="C65" t="n">
+        <v>63</v>
+      </c>
+      <c r="D65" t="inlineStr">
         <is>
           <t>FEES</t>
         </is>
       </c>
-      <c r="C65" t="inlineStr">
+      <c r="E65" t="inlineStr">
         <is>
           <t>1731443855.2428112</t>
         </is>
       </c>
-      <c r="D65" t="inlineStr">
+      <c r="F65" t="inlineStr">
         <is>
           <t>1731443855.917491</t>
         </is>
       </c>
-      <c r="E65" t="inlineStr">
+      <c r="G65" t="inlineStr">
         <is>
           <t>./test_images/FEES1731443855.2428112.png</t>
         </is>
       </c>
-      <c r="F65" t="inlineStr">
+      <c r="H65" t="inlineStr">
         <is>
           <t>./test_images/FEES1731443855.917491.png</t>
         </is>
       </c>
-      <c r="G65" t="inlineStr">
+      <c r="I65" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H65" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I65" t="n">
+      <c r="J65" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K65" t="n">
         <v>0.09546</v>
       </c>
-      <c r="J65" t="n">
+      <c r="L65" t="n">
         <v>0.09556000000000001</v>
       </c>
-      <c r="K65" t="n">
+      <c r="M65" t="n">
         <v>0.0001000000000000029</v>
+      </c>
+      <c r="N65" t="n">
+        <v>0.1</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
         <v>64</v>
       </c>
-      <c r="B66" t="inlineStr">
+      <c r="B66" t="n">
+        <v>64</v>
+      </c>
+      <c r="C66" t="n">
+        <v>64</v>
+      </c>
+      <c r="D66" t="inlineStr">
         <is>
           <t>FEES</t>
         </is>
       </c>
-      <c r="C66" t="inlineStr">
+      <c r="E66" t="inlineStr">
         <is>
           <t>1731443856.204323</t>
         </is>
       </c>
-      <c r="D66" t="inlineStr">
+      <c r="F66" t="inlineStr">
         <is>
           <t>1731443857.1543353</t>
         </is>
       </c>
-      <c r="E66" t="inlineStr">
+      <c r="G66" t="inlineStr">
         <is>
           <t>./test_images/FEES1731443856.204323.png</t>
         </is>
       </c>
-      <c r="F66" t="inlineStr">
+      <c r="H66" t="inlineStr">
         <is>
           <t>./test_images/FEES1731443857.1543353.png</t>
         </is>
       </c>
-      <c r="G66" t="inlineStr">
+      <c r="I66" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H66" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I66" t="n">
+      <c r="J66" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K66" t="n">
         <v>0.09542</v>
       </c>
-      <c r="J66" t="n">
+      <c r="L66" t="n">
         <v>0.0954</v>
       </c>
-      <c r="K66" t="n">
+      <c r="M66" t="n">
         <v>-2.000000000000612e-05</v>
+      </c>
+      <c r="N66" t="n">
+        <v>-0.02</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
         <v>65</v>
       </c>
-      <c r="B67" t="inlineStr">
+      <c r="B67" t="n">
+        <v>65</v>
+      </c>
+      <c r="C67" t="n">
+        <v>65</v>
+      </c>
+      <c r="D67" t="inlineStr">
         <is>
           <t>FEES</t>
         </is>
       </c>
-      <c r="C67" t="inlineStr">
+      <c r="E67" t="inlineStr">
         <is>
           <t>1731443857.250386</t>
         </is>
       </c>
-      <c r="D67" t="inlineStr">
+      <c r="F67" t="inlineStr">
         <is>
           <t>1731443857.3753006</t>
         </is>
       </c>
-      <c r="E67" t="inlineStr">
+      <c r="G67" t="inlineStr">
         <is>
           <t>./test_images/FEES1731443857.250386.png</t>
         </is>
       </c>
-      <c r="F67" t="inlineStr">
+      <c r="H67" t="inlineStr">
         <is>
           <t>./test_images/FEES1731443857.3753006.png</t>
         </is>
       </c>
-      <c r="G67" t="inlineStr">
+      <c r="I67" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H67" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I67" t="n">
+      <c r="J67" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K67" t="n">
         <v>0.09502000000000001</v>
       </c>
-      <c r="J67" t="n">
+      <c r="L67" t="n">
         <v>0.09530000000000001</v>
       </c>
-      <c r="K67" t="n">
+      <c r="M67" t="n">
         <v>0.0002800000000000025</v>
+      </c>
+      <c r="N67" t="n">
+        <v>0.29</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
         <v>66</v>
       </c>
-      <c r="B68" t="inlineStr">
+      <c r="B68" t="n">
+        <v>66</v>
+      </c>
+      <c r="C68" t="n">
+        <v>66</v>
+      </c>
+      <c r="D68" t="inlineStr">
         <is>
           <t>FEES</t>
         </is>
       </c>
-      <c r="C68" t="inlineStr">
+      <c r="E68" t="inlineStr">
         <is>
           <t>1731443859.873744</t>
         </is>
       </c>
-      <c r="D68" t="inlineStr">
+      <c r="F68" t="inlineStr">
         <is>
           <t>1731443860.480913</t>
         </is>
       </c>
-      <c r="E68" t="inlineStr">
+      <c r="G68" t="inlineStr">
         <is>
           <t>./test_images/FEES1731443859.873744.png</t>
         </is>
       </c>
-      <c r="F68" t="inlineStr">
+      <c r="H68" t="inlineStr">
         <is>
           <t>./test_images/FEES1731443860.480913.png</t>
         </is>
       </c>
-      <c r="G68" t="inlineStr">
+      <c r="I68" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H68" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I68" t="n">
+      <c r="J68" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K68" t="n">
         <v>0.09516000000000001</v>
       </c>
-      <c r="J68" t="n">
+      <c r="L68" t="n">
         <v>0.09566000000000001</v>
       </c>
-      <c r="K68" t="n">
+      <c r="M68" t="n">
         <v>-0.0005000000000000004</v>
+      </c>
+      <c r="N68" t="n">
+        <v>-0.53</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
         <v>67</v>
       </c>
-      <c r="B69" t="inlineStr">
+      <c r="B69" t="n">
+        <v>67</v>
+      </c>
+      <c r="C69" t="n">
+        <v>67</v>
+      </c>
+      <c r="D69" t="inlineStr">
         <is>
           <t>HYDR</t>
         </is>
       </c>
-      <c r="C69" t="inlineStr">
+      <c r="E69" t="inlineStr">
         <is>
           <t>1731443868.062463</t>
         </is>
       </c>
-      <c r="D69" t="inlineStr">
+      <c r="F69" t="inlineStr">
         <is>
           <t>1731443868.1552763</t>
         </is>
       </c>
-      <c r="E69" t="inlineStr">
+      <c r="G69" t="inlineStr">
         <is>
           <t>./test_images/HYDR1731443868.062463.png</t>
         </is>
       </c>
-      <c r="F69" t="inlineStr">
+      <c r="H69" t="inlineStr">
         <is>
           <t>./test_images/HYDR1731443868.1552763.png</t>
         </is>
       </c>
-      <c r="G69" t="inlineStr">
+      <c r="I69" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H69" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I69" t="n">
+      <c r="J69" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K69" t="n">
         <v>95.22</v>
       </c>
-      <c r="J69" t="n">
+      <c r="L69" t="n">
         <v>95.23999999999999</v>
       </c>
-      <c r="K69" t="n">
+      <c r="M69" t="n">
         <v>0.01999999999999602</v>
+      </c>
+      <c r="N69" t="n">
+        <v>0.02</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
         <v>68</v>
       </c>
-      <c r="B70" t="inlineStr">
+      <c r="B70" t="n">
+        <v>68</v>
+      </c>
+      <c r="C70" t="n">
+        <v>68</v>
+      </c>
+      <c r="D70" t="inlineStr">
         <is>
           <t>HYDR</t>
         </is>
       </c>
-      <c r="C70" t="inlineStr">
+      <c r="E70" t="inlineStr">
         <is>
           <t>1731443868.8561</t>
         </is>
       </c>
-      <c r="D70" t="inlineStr">
+      <c r="F70" t="inlineStr">
         <is>
           <t>1731443869.8799574</t>
         </is>
       </c>
-      <c r="E70" t="inlineStr">
+      <c r="G70" t="inlineStr">
         <is>
           <t>./test_images/HYDR1731443868.8561.png</t>
         </is>
       </c>
-      <c r="F70" t="inlineStr">
+      <c r="H70" t="inlineStr">
         <is>
           <t>./test_images/HYDR1731443869.8799574.png</t>
         </is>
       </c>
-      <c r="G70" t="inlineStr">
+      <c r="I70" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H70" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I70" t="n">
+      <c r="J70" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K70" t="n">
         <v>94.95</v>
       </c>
-      <c r="J70" t="n">
+      <c r="L70" t="n">
         <v>94.83</v>
       </c>
-      <c r="K70" t="n">
+      <c r="M70" t="n">
         <v>-0.1200000000000045</v>
+      </c>
+      <c r="N70" t="n">
+        <v>-0.13</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
         <v>69</v>
       </c>
-      <c r="B71" t="inlineStr">
+      <c r="B71" t="n">
+        <v>69</v>
+      </c>
+      <c r="C71" t="n">
+        <v>69</v>
+      </c>
+      <c r="D71" t="inlineStr">
         <is>
           <t>HYDR</t>
         </is>
       </c>
-      <c r="C71" t="inlineStr">
+      <c r="E71" t="inlineStr">
         <is>
           <t>1731443870.1472273</t>
         </is>
       </c>
-      <c r="D71" t="inlineStr">
+      <c r="F71" t="inlineStr">
         <is>
           <t>1731443870.2412488</t>
         </is>
       </c>
-      <c r="E71" t="inlineStr">
+      <c r="G71" t="inlineStr">
         <is>
           <t>./test_images/HYDR1731443870.1472273.png</t>
         </is>
       </c>
-      <c r="F71" t="inlineStr">
+      <c r="H71" t="inlineStr">
         <is>
           <t>./test_images/HYDR1731443870.2412488.png</t>
         </is>
       </c>
-      <c r="G71" t="inlineStr">
+      <c r="I71" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H71" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I71" t="n">
+      <c r="J71" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K71" t="n">
         <v>94.47</v>
       </c>
-      <c r="J71" t="n">
+      <c r="L71" t="n">
         <v>94.68000000000001</v>
       </c>
-      <c r="K71" t="n">
+      <c r="M71" t="n">
         <v>0.210000000000008</v>
+      </c>
+      <c r="N71" t="n">
+        <v>0.22</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
         <v>70</v>
       </c>
-      <c r="B72" t="inlineStr">
+      <c r="B72" t="n">
+        <v>70</v>
+      </c>
+      <c r="C72" t="n">
+        <v>70</v>
+      </c>
+      <c r="D72" t="inlineStr">
         <is>
           <t>MXI</t>
         </is>
       </c>
-      <c r="C72" t="inlineStr">
+      <c r="E72" t="inlineStr">
         <is>
           <t>1731443872.025171</t>
         </is>
       </c>
-      <c r="D72" t="inlineStr">
+      <c r="F72" t="inlineStr">
         <is>
           <t>1731443875.9097526</t>
         </is>
       </c>
-      <c r="E72" t="inlineStr">
+      <c r="G72" t="inlineStr">
         <is>
           <t>./test_images/MXI1731443872.025171.png</t>
         </is>
       </c>
-      <c r="F72" t="inlineStr">
+      <c r="H72" t="inlineStr">
         <is>
           <t>./test_images/MXI1731443875.9097526.png</t>
         </is>
       </c>
-      <c r="G72" t="inlineStr">
+      <c r="I72" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H72" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I72" t="n">
+      <c r="J72" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K72" t="n">
         <v>2894.9</v>
       </c>
-      <c r="J72" t="n">
+      <c r="L72" t="n">
         <v>2900.65</v>
       </c>
-      <c r="K72" t="n">
+      <c r="M72" t="n">
         <v>5.75</v>
+      </c>
+      <c r="N72" t="n">
+        <v>0.2</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
         <v>71</v>
       </c>
-      <c r="B73" t="inlineStr">
+      <c r="B73" t="n">
+        <v>71</v>
+      </c>
+      <c r="C73" t="n">
+        <v>71</v>
+      </c>
+      <c r="D73" t="inlineStr">
         <is>
           <t>MXI</t>
         </is>
       </c>
-      <c r="C73" t="inlineStr">
+      <c r="E73" t="inlineStr">
         <is>
           <t>1731443876.0620058</t>
         </is>
       </c>
-      <c r="D73" t="inlineStr">
+      <c r="F73" t="inlineStr">
         <is>
           <t>1731443876.8977306</t>
         </is>
       </c>
-      <c r="E73" t="inlineStr">
+      <c r="G73" t="inlineStr">
         <is>
           <t>./test_images/MXI1731443876.0620058.png</t>
         </is>
       </c>
-      <c r="F73" t="inlineStr">
+      <c r="H73" t="inlineStr">
         <is>
           <t>./test_images/MXI1731443876.8977306.png</t>
         </is>
       </c>
-      <c r="G73" t="inlineStr">
+      <c r="I73" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H73" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I73" t="n">
+      <c r="J73" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K73" t="n">
         <v>2901.45</v>
       </c>
-      <c r="J73" t="n">
+      <c r="L73" t="n">
         <v>2902.55</v>
       </c>
-      <c r="K73" t="n">
+      <c r="M73" t="n">
         <v>-1.100000000000364</v>
+      </c>
+      <c r="N73" t="n">
+        <v>-0.04</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
         <v>72</v>
       </c>
-      <c r="B74" t="inlineStr">
+      <c r="B74" t="n">
+        <v>72</v>
+      </c>
+      <c r="C74" t="n">
+        <v>72</v>
+      </c>
+      <c r="D74" t="inlineStr">
         <is>
           <t>MXI</t>
         </is>
       </c>
-      <c r="C74" t="inlineStr">
+      <c r="E74" t="inlineStr">
         <is>
           <t>1731443878.1932611</t>
         </is>
       </c>
-      <c r="D74" t="inlineStr">
+      <c r="F74" t="inlineStr">
         <is>
           <t>1731443878.693281</t>
         </is>
       </c>
-      <c r="E74" t="inlineStr">
+      <c r="G74" t="inlineStr">
         <is>
           <t>./test_images/MXI1731443878.1932611.png</t>
         </is>
       </c>
-      <c r="F74" t="inlineStr">
+      <c r="H74" t="inlineStr">
         <is>
           <t>./test_images/MXI1731443878.693281.png</t>
         </is>
       </c>
-      <c r="G74" t="inlineStr">
+      <c r="I74" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H74" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I74" t="n">
+      <c r="J74" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K74" t="n">
         <v>2906.2</v>
       </c>
-      <c r="J74" t="n">
+      <c r="L74" t="n">
         <v>2906.75</v>
       </c>
-      <c r="K74" t="n">
+      <c r="M74" t="n">
         <v>-0.5500000000001819</v>
+      </c>
+      <c r="N74" t="n">
+        <v>-0.02</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
         <v>73</v>
       </c>
-      <c r="B75" t="inlineStr">
+      <c r="B75" t="n">
+        <v>73</v>
+      </c>
+      <c r="C75" t="n">
+        <v>73</v>
+      </c>
+      <c r="D75" t="inlineStr">
         <is>
           <t>MXI</t>
         </is>
       </c>
-      <c r="C75" t="inlineStr">
+      <c r="E75" t="inlineStr">
         <is>
           <t>1731443882.2513762</t>
-        </is>
-      </c>
-      <c r="D75" t="inlineStr"/>
-      <c r="E75" t="inlineStr">
-        <is>
-          <t>./test_images/MXI1731443882.2513762.png</t>
         </is>
       </c>
       <c r="F75" t="inlineStr"/>
       <c r="G75" t="inlineStr">
         <is>
+          <t>./test_images/MXI1731443882.2513762.png</t>
+        </is>
+      </c>
+      <c r="H75" t="inlineStr"/>
+      <c r="I75" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H75" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I75" t="n">
+      <c r="J75" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K75" t="n">
         <v>2894</v>
       </c>
-      <c r="J75" t="n">
-        <v>2894</v>
-      </c>
-      <c r="K75" t="n">
-        <v>0</v>
+      <c r="L75" t="n">
+        <v>2888</v>
+      </c>
+      <c r="M75" t="n">
+        <v>-6</v>
+      </c>
+      <c r="N75" t="n">
+        <v>-0.21</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
         <v>74</v>
       </c>
-      <c r="B76" t="inlineStr">
+      <c r="B76" t="n">
+        <v>74</v>
+      </c>
+      <c r="C76" t="n">
+        <v>74</v>
+      </c>
+      <c r="D76" t="inlineStr">
         <is>
           <t>RUAL</t>
         </is>
       </c>
-      <c r="C76" t="inlineStr">
+      <c r="E76" t="inlineStr">
         <is>
           <t>1731443886.834879</t>
         </is>
       </c>
-      <c r="D76" t="inlineStr">
+      <c r="F76" t="inlineStr">
         <is>
           <t>1731443887.0857058</t>
         </is>
       </c>
-      <c r="E76" t="inlineStr">
+      <c r="G76" t="inlineStr">
         <is>
           <t>./test_images/RUAL1731443886.834879.png</t>
         </is>
       </c>
-      <c r="F76" t="inlineStr">
+      <c r="H76" t="inlineStr">
         <is>
           <t>./test_images/RUAL1731443887.0857058.png</t>
         </is>
       </c>
-      <c r="G76" t="inlineStr">
+      <c r="I76" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H76" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I76" t="n">
+      <c r="J76" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K76" t="n">
         <v>11.923</v>
       </c>
-      <c r="J76" t="n">
+      <c r="L76" t="n">
         <v>11.926</v>
       </c>
-      <c r="K76" t="n">
+      <c r="M76" t="n">
         <v>-0.003000000000000114</v>
+      </c>
+      <c r="N76" t="n">
+        <v>-0.03</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
         <v>75</v>
       </c>
-      <c r="B77" t="inlineStr">
+      <c r="B77" t="n">
+        <v>75</v>
+      </c>
+      <c r="C77" t="n">
+        <v>75</v>
+      </c>
+      <c r="D77" t="inlineStr">
         <is>
           <t>RUAL</t>
         </is>
       </c>
-      <c r="C77" t="inlineStr">
+      <c r="E77" t="inlineStr">
         <is>
           <t>1731443887.526783</t>
-        </is>
-      </c>
-      <c r="D77" t="inlineStr"/>
-      <c r="E77" t="inlineStr">
-        <is>
-          <t>./test_images/RUAL1731443887.526783.png</t>
         </is>
       </c>
       <c r="F77" t="inlineStr"/>
       <c r="G77" t="inlineStr">
         <is>
+          <t>./test_images/RUAL1731443887.526783.png</t>
+        </is>
+      </c>
+      <c r="H77" t="inlineStr"/>
+      <c r="I77" t="inlineStr">
+        <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H77" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I77" t="n">
+      <c r="J77" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K77" t="n">
         <v>11.961</v>
       </c>
-      <c r="J77" t="n">
-        <v>11.961</v>
-      </c>
-      <c r="K77" t="n">
-        <v>0</v>
+      <c r="L77" t="n">
+        <v>11.96</v>
+      </c>
+      <c r="M77" t="n">
+        <v>0.0009999999999994458</v>
+      </c>
+      <c r="N77" t="n">
+        <v>0.01</v>
       </c>
     </row>
   </sheetData>
@@ -4119,7 +4816,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D23"/>
+  <dimension ref="A1:F23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4148,6 +4845,16 @@
           <t>part</t>
         </is>
       </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>total_percent</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>average_percent</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -4156,13 +4863,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-0.04499999999999815</v>
+        <v>-0.0449999999999946</v>
       </c>
       <c r="C2" t="n">
         <v>6</v>
       </c>
       <c r="D2" t="n">
-        <v>-0.007499999999999692</v>
+        <v>-0.0074999999999991</v>
+      </c>
+      <c r="E2" t="n">
+        <v>-0.21</v>
+      </c>
+      <c r="F2" t="n">
+        <v>-0.04</v>
       </c>
     </row>
     <row r="3">
@@ -4172,13 +4885,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.659999999999954</v>
+        <v>0.6299999999999528</v>
       </c>
       <c r="C3" t="n">
         <v>6</v>
       </c>
       <c r="D3" t="n">
-        <v>0.1099999999999923</v>
+        <v>0.1049999999999921</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0.08</v>
       </c>
     </row>
     <row r="4">
@@ -4188,13 +4907,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>2.47999999999999</v>
+        <v>2.269999999999982</v>
       </c>
       <c r="C4" t="n">
         <v>6</v>
       </c>
       <c r="D4" t="n">
-        <v>0.4133333333333316</v>
+        <v>0.3783333333333303</v>
+      </c>
+      <c r="E4" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0.17</v>
       </c>
     </row>
     <row r="5">
@@ -4204,13 +4929,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.5349999999999966</v>
+        <v>-0.6049999999999969</v>
       </c>
       <c r="C5" t="n">
         <v>5</v>
       </c>
       <c r="D5" t="n">
-        <v>-0.1069999999999993</v>
+        <v>-0.1209999999999994</v>
+      </c>
+      <c r="E5" t="n">
+        <v>-1.23</v>
+      </c>
+      <c r="F5" t="n">
+        <v>-0.25</v>
       </c>
     </row>
     <row r="6">
@@ -4228,6 +4959,12 @@
       <c r="D6" t="n">
         <v>0.9600000000000136</v>
       </c>
+      <c r="E6" t="n">
+        <v>0.48</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0.1</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -4236,13 +4973,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.7599999999999909</v>
+        <v>0.7399999999999949</v>
       </c>
       <c r="C7" t="n">
         <v>4</v>
       </c>
       <c r="D7" t="n">
-        <v>0.1899999999999977</v>
+        <v>0.1849999999999987</v>
+      </c>
+      <c r="E7" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0.33</v>
       </c>
     </row>
     <row r="8">
@@ -4252,13 +4995,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.3700000000000045</v>
+        <v>-0.5099999999999909</v>
       </c>
       <c r="C8" t="n">
         <v>4</v>
       </c>
       <c r="D8" t="n">
-        <v>0.09250000000000114</v>
+        <v>-0.1274999999999977</v>
+      </c>
+      <c r="E8" t="n">
+        <v>-0.18</v>
+      </c>
+      <c r="F8" t="n">
+        <v>-0.04</v>
       </c>
     </row>
     <row r="9">
@@ -4268,13 +5017,19 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>4.099999999999454</v>
+        <v>-1.900000000000546</v>
       </c>
       <c r="C9" t="n">
         <v>4</v>
       </c>
       <c r="D9" t="n">
-        <v>1.024999999999864</v>
+        <v>-0.4750000000001364</v>
+      </c>
+      <c r="E9" t="n">
+        <v>-0.06999999999999998</v>
+      </c>
+      <c r="F9" t="n">
+        <v>-0.02</v>
       </c>
     </row>
     <row r="10">
@@ -4292,6 +5047,12 @@
       <c r="D10" t="n">
         <v>-3.500000000000031e-05</v>
       </c>
+      <c r="E10" t="n">
+        <v>-0.16</v>
+      </c>
+      <c r="F10" t="n">
+        <v>-0.04</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
@@ -4308,6 +5069,12 @@
       <c r="D11" t="n">
         <v>-0.7000000000000455</v>
       </c>
+      <c r="E11" t="n">
+        <v>-0.2</v>
+      </c>
+      <c r="F11" t="n">
+        <v>-0.05</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
@@ -4316,13 +5083,19 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>22</v>
+        <v>7.5</v>
       </c>
       <c r="C12" t="n">
         <v>3</v>
       </c>
       <c r="D12" t="n">
-        <v>7.333333333333333</v>
+        <v>2.5</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="F12" t="n">
+        <v>0.04</v>
       </c>
     </row>
     <row r="13">
@@ -4340,6 +5113,12 @@
       <c r="D13" t="n">
         <v>0.03666666666666648</v>
       </c>
+      <c r="E13" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="F13" t="n">
+        <v>0.04</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
@@ -4356,6 +5135,12 @@
       <c r="D14" t="n">
         <v>0.2266666666666666</v>
       </c>
+      <c r="E14" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="F14" t="n">
+        <v>0.38</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
@@ -4372,6 +5157,12 @@
       <c r="D15" t="n">
         <v>-0.0466666666666716</v>
       </c>
+      <c r="E15" t="n">
+        <v>-0.09000000000000001</v>
+      </c>
+      <c r="F15" t="n">
+        <v>-0.03</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
@@ -4380,13 +5171,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.5</v>
+        <v>-0.3000000000000114</v>
       </c>
       <c r="C16" t="n">
         <v>3</v>
       </c>
       <c r="D16" t="n">
-        <v>0.1666666666666667</v>
+        <v>-0.1000000000000038</v>
+      </c>
+      <c r="E16" t="n">
+        <v>-0.06</v>
+      </c>
+      <c r="F16" t="n">
+        <v>-0.02</v>
       </c>
     </row>
     <row r="17">
@@ -4404,6 +5201,12 @@
       <c r="D17" t="n">
         <v>0.08666666666666838</v>
       </c>
+      <c r="E17" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="F17" t="n">
+        <v>0.09</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
@@ -4420,6 +5223,12 @@
       <c r="D18" t="n">
         <v>0.08999999999999631</v>
       </c>
+      <c r="E18" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="F18" t="n">
+        <v>0.08</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
@@ -4428,13 +5237,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>-0.003000000000000114</v>
+        <v>-0.002000000000000668</v>
       </c>
       <c r="C19" t="n">
         <v>2</v>
       </c>
       <c r="D19" t="n">
-        <v>-0.001500000000000057</v>
+        <v>-0.001000000000000334</v>
+      </c>
+      <c r="E19" t="n">
+        <v>-0.02</v>
+      </c>
+      <c r="F19" t="n">
+        <v>-0.01</v>
       </c>
     </row>
     <row r="20">
@@ -4452,6 +5267,12 @@
       <c r="D20" t="n">
         <v>1.700000000000045</v>
       </c>
+      <c r="E20" t="n">
+        <v>0.52</v>
+      </c>
+      <c r="F20" t="n">
+        <v>0.26</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
@@ -4468,6 +5289,12 @@
       <c r="D21" t="n">
         <v>0.210000000000008</v>
       </c>
+      <c r="E21" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="F21" t="n">
+        <v>0.14</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
@@ -4476,13 +5303,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>0.005000000000000782</v>
       </c>
       <c r="C22" t="n">
         <v>1</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>0.005000000000000782</v>
+      </c>
+      <c r="E22" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="F22" t="n">
+        <v>0.04</v>
       </c>
     </row>
     <row r="23">
@@ -4498,6 +5331,10 @@
         <v>0</v>
       </c>
       <c r="D23" t="inlineStr"/>
+      <c r="E23" t="n">
+        <v>0</v>
+      </c>
+      <c r="F23" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
